--- a/Final Reports/Final_report.xlsx
+++ b/Final Reports/Final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_WHR\Final Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FEFDD4-24D7-4C29-BE28-8F7524BE24D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C05B1AB-DF60-436D-8D77-168D9C5A550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="6" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="179">
   <si>
     <t>Column Name</t>
   </si>
@@ -283,12 +283,6 @@
     <t>region</t>
   </si>
   <si>
-    <t>Derived from conditions in the 2015,2016, and 2017 region column by aggregating countries into different regions of the world. This condition was applied over the existing region column for consistency across the dataset.</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['New Zealand', 'Australia']), 'region'] = 'Australia and New Zealand'</t>
-  </si>
-  <si>
     <t>_merge</t>
   </si>
   <si>
@@ -298,33 +292,6 @@
     <t>DF_all= pd.merge(DF_WHR, DF_GDP, on=['Country', 'year'], how='left', indicator=True)</t>
   </si>
   <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Czech Republic', 'Uzbekistan', 'Slovakia', 'Moldova', 'Kazakhstan', 'Slovenia', 'Lithuania', 'Belarus', 'Poland', 'Croatia', 'Russia', 'Kosovo', 'Turkmenistan', 'Estonia', Kyrgyzstan', 'Azerbaijan', 'Montenegro', 'Romania', 'Serbia', 'Latvia', 'Macedonia', 'Albania', 'Bosnia and Herzegovina', 'Hungary', 'Tajikistan', 'Ukraine', 'Armenia', 'Georgia',                                    'Bulgaria']),  'region'] = 'Central and Eastern Europe'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Costa Rica', 'Mexico', 'Brazil', 'Venezuela', 'Panama', 'Chile', 'Argentina', 'Uruguay', ‘'Colombia',  'Suriname', 'Trinidad and Tobago', 'El Salvador', 'Guatemala', 'Ecuador', 'Bolivia', 'Paraguay', 'Nicaragua', 'Peru', 'Jamaica', 'Dominican Republic', 'Honduras', 'Haiti']),                               'region'] = 'Latin America and Caribbean'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Switzerland', 'Iceland', 'Denmark', 'Norway', 'Finland', 'Netherlands', 'Sweden', 'Austria', 'Luxembourg', 'Ireland', 'Belgium', 'United Kingdom', 'Germany', 'France', 'Spain', 'Malta', 'Italy', 'North Cyprus', 'Cyprus', 'Portugal', 'Greece']), 'region'] = 'Western Europe'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Singapore', 'Thailand', 'Malaysia', 'Indonesia', 'Vietnam', 'Philippines', 'Laos', 'Myanmar',  'Cambodia']),'region'] = 'Southeastern Asia'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Bhutan', 'Pakistan', 'Bangladesh', 'India', 'Nepal', 'Sri Lanka', 'Afghanistan']), 'region'] = 'Southern Asia'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Taiwan', 'Japan', 'South Korea', 'Hong Kong', 'China', 'Mongolia']),’region'] = 'Eastern Asia'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Canada', 'United States']), 'region'] = 'North America'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Israel', 'United Arab Emirates', 'Oman', 'Qatar', 'Saudi Arabia', 'Kuwait', 'Bahrain', 'Libya',  'Algeria', 'Turkey', 'Jordan', 'Morocco', 'Lebanon', 'Tunisia', 'Palestinian Territories', 'Iran', 'Iraq', 'Egypt', 'Yemen', 'Syria']), 'region'] = 'Middle East and Northern Africa'</t>
-  </si>
-  <si>
-    <t>DF_all.loc[DF_all['Country'].isin(['Mauritius', 'Nigeria', 'Zambia', 'Somaliland region', 'Mozambique', 'Lesotho', 'Swaziland', 'South Africa', 'Ghana', 'Zimbabwe', 'Liberia', 'Sudan', 'Congo (Kinshasa)', 'Ethiopia',  'Sierra Leone', 'Mauritania', Kenya', 'Djibouti', Botswana', 'Malawi', 'Cameroon', 'Angola', 'Mali', 'Congo (Brazzaville)', 'Comoros', 'Uganda', Senegal', 'Gabon', 'Niger', 'Tanzania', 'Madagascar', 'Central African Republic', 'Chad', Guinea', 'Ivory Coast', 'Burkina Faso' ,'Rwanda', 'Benin', 'Burundi', 'Togo']), 'region'] = 'Sub-Saharan Africa'</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -341,21 +308,6 @@
   </si>
   <si>
     <t>Citations &amp; Appendix</t>
-  </si>
-  <si>
-    <t>Happiness Report 2022. New York: Sustainable Development Solutions Network.</t>
-  </si>
-  <si>
-    <t>[https://www.kaggle.com/datasets/unsdsn/world-happiness]</t>
-  </si>
-  <si>
-    <t>Retrieved from [https://databank.worldbank.org/]</t>
-  </si>
-  <si>
-    <t>Helliwell, J. F., Layard, R., Sachs, J. D., De Neve, J.-E., Aknin, L. B., &amp; Wang, S. (Eds.). (2022). World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable Development Solutions Network (2019). World Happiness Report. Retrieved [12/16/23] from  </t>
   </si>
   <si>
     <t>Citations</t>
@@ -775,22 +727,10 @@
     <t>9 Missing values</t>
   </si>
   <si>
-    <t>Rows were lost during the concating phase due to issues with matching data. Script '3. Wranging and concating GDP with WHR CSV' documents where rowswere discarded duringthe merge.
-The rows marked as 0 are rows identified from the GDP indicators that were left duringthe merge. Values will be left as 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 rows Removed
-4 Rows marked with  0s [in place of NaNs
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> limitations with time and availability to review additional factors that may impact economy outside of GDP</t>
   </si>
   <si>
     <t>Hypotheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Group (2023). World Bank, World Development Indicators .  </t>
   </si>
   <si>
     <t>1. Higher GDP per capita is positively correlated with a higher happiness score.</t>
@@ -1019,6 +959,50 @@
   </si>
   <si>
     <t>Additional variables that may have correlation between GDP growth or decline are perception of social support, healthy life expectancy, and perceptions of government corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 rows with NaN values
+4 Rows marked with  0s [in place of NaNs
+</t>
+  </si>
+  <si>
+    <t>NanN values are a result of a l'eft' merge. These rows were either countys that did not report income to the World Bank or are sub-regions of larger countries and for various reasons do not have values recorded with teh World Bank. Values were imputed with 0 for analysis purposes. Countries affected include: Venezula, Taiwan, North Cyprus, Somalilan region, South Sudan, Macedonia.
+The rows marked as 0 are rows identified from the GDP indicators that were left duringthe merge. Values will be left as 0</t>
+  </si>
+  <si>
+    <t>Derived from conditions in the 2015,2016, and 2017 original 'region' column by aggregating countries into different regions of the world. This condition was applied over the existing region column for consistency across the dataset.</t>
+  </si>
+  <si>
+    <t>Values to determine regions were set by using the original region category from the WHR_all report and standarizing it  to all values. The code can be found in python script '2. Wrangling and Concating WHR 2015 to 2019'. Some countries/regions were not included in the original region column. Those countries were cross referenced online to determine were their best fit would be for world region.</t>
+  </si>
+  <si>
+    <t>Sustainable Development Solutions Network (2019). World Happiness Report. Retrieved [12/16/23] from  [https://www.kaggle.com/datasets/unsdsn/world-happiness]. Retrieved from [https://databank.worldbank.org/]</t>
+  </si>
+  <si>
+    <t>Helliwell, J. F., Layard, R., Sachs, J. D., De Neve, J.-E., Aknin, L. B., &amp; Wang, S. (Eds.). (2022). World Happiness Report 2022. New York: Sustainable Development Solutions Network.</t>
+  </si>
+  <si>
+    <t>The initial analysis reveals a notable correlation between GDP per capita and happiness scores, although the presence of outliers complicates a thorough examination at this point. The continent of Africa stands out when comparing GDP growth relatively to other countries, showcasing an overlap between perceptions of the economy and happiness scores. This suggests that these countries might be more influenced by economic growth and change compared to nations reporting overall higher GDP and GDP per capita.</t>
+  </si>
+  <si>
+    <t>China, South America (observed in Chloropleth maps)</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Test Data:
+Slope: [[3.9050219e-05]]
+Mean squared error:  0.662360471885746
+R2 score:  0.4694965640931894
+Testing Data after outliers were removed:
+Slope: [[4.73874169e-05]]
+Mean squared error:  0.5897324497872984
+R2 score:  0.5310132425156725
+Slope indicates a positive, but relatively weak correlation between GDP_per_capita and happiness score. MSE indicates a high variance between actual and predicted values and suggests possible concerns for overfitting in the training dataset. R2 values indicate that approximately 46% of the variance in happiness_score can be explained by the linear relationship with GDP_per_capita, giving a moderate level of explanatory power between variables.
+Results from the initial analysis do not strongly support the hypothesis that 'Higher GDP per capita is positively correlated with a higher happiness score.' The presence of high outliers may complicate the analysis and skew results. The analysis will be run again, but after removing high outliers to see if performance improves.
+Both data sets indicate a positive correlation which can be observed in the scatterplots above. Removal of the extreme outliers does appear to improve the MSE and R2 scores. However, considering that around 12% of the dataset falls into the outlier category, removal of all outliers might adversely affect the analysis and learning model.
+scripts showcasing this analysis can be found in '6. Supervised Machine Learning'</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1959,12 +1943,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,9 +1992,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1993,20 +2009,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2014,15 +2021,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2067,54 +2066,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2131,15 +2082,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2167,57 +2109,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2242,15 +2133,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2263,21 +2145,11 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2322,24 +2194,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2349,57 +2203,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2415,15 +2233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2459,6 +2271,199 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3012,11 +3017,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>744 Rows</a:t>
+            <a:t>782 Rows</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> x 15 Columns</a:t>
+            <a:t> x 11 Columns</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -3096,7 +3101,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>757 Rows x 15Columns</a:t>
+            <a:t>785 Rows x 15 Columns</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4285,7 +4290,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -4295,52 +4300,52 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
     </row>
     <row r="3" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>96</v>
+      <c r="A3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="27">
         <v>2023</v>
       </c>
     </row>
@@ -4349,83 +4354,83 @@
     </row>
     <row r="6" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44" t="s">
-        <v>99</v>
+      <c r="B6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="38">
+      <c r="D7" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="38">
+      <c r="D8" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="38">
+      <c r="D9" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="38">
+      <c r="D10" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
-        <v>98</v>
+      <c r="B11" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="38">
+      <c r="D11" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="38">
+      <c r="D12" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="38">
+      <c r="D13" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41">
+      <c r="B14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33">
         <v>9</v>
       </c>
     </row>
@@ -4453,75 +4458,74 @@
     <col min="5" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
-        <v>110</v>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="172"/>
+      <c r="D6" s="178"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="172"/>
+      <c r="D7" s="178"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="172"/>
+      <c r="D8" s="178"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="172"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
+      <c r="B10" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4541,28 +4545,28 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>97</v>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="45" t="s">
-        <v>103</v>
+      <c r="B18" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4574,9 +4578,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12330467-BA53-49D0-8B6E-67B1920A39FD}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -4587,864 +4591,831 @@
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="34" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:11" s="26" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="127" t="s">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="88" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="150"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="74" t="s">
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="129">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="132"/>
+      <c r="F30" s="129">
+        <v>2017</v>
+      </c>
+      <c r="G30" s="130"/>
+      <c r="H30" s="131">
+        <v>2018</v>
+      </c>
+      <c r="I30" s="132"/>
+      <c r="J30" s="129">
+        <v>2019</v>
+      </c>
+      <c r="K30" s="130"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="74" t="s">
+      <c r="D32" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="75" t="s">
+      <c r="J32" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="73" t="s">
+      <c r="H34" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="122" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="84" t="s">
+      <c r="F35" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="113" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="H35" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="89"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="97"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="101">
-        <v>2015</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103">
-        <v>2016</v>
-      </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="101">
-        <v>2017</v>
-      </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103">
-        <v>2018</v>
-      </c>
-      <c r="I30" s="104"/>
-      <c r="J30" s="101">
-        <v>2019</v>
-      </c>
-      <c r="K30" s="102"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="117" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="105" t="s">
+      <c r="E40" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="106" t="s">
+      <c r="F40" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="105" t="s">
+      <c r="H40" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="106" t="s">
+      <c r="J40" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="109" t="s">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="105" t="s">
+      <c r="D41" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="106" t="s">
+      <c r="F41" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="105" t="s">
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="78"/>
+    </row>
+    <row r="42" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="106" t="s">
+      <c r="D42" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="109" t="s">
+      <c r="F42" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="105" t="s">
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="78"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="106" t="s">
+      <c r="D43" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="105" t="s">
+      <c r="F43" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="106" t="s">
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="66"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="129"/>
-    </row>
-    <row r="42" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="129"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="129"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="110"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="129"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="110"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="129"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="131"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5456,8 +5427,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E56"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,518 +5439,518 @@
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="126" t="s">
-        <v>95</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="75" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="286.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="158" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="135" t="s">
-        <v>148</v>
+      <c r="E5" s="84" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="159" t="s">
+      <c r="E6" s="163" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141"/>
-      <c r="C7" s="136" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="160"/>
+      <c r="E7" s="156"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
-      <c r="C8" s="136" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="160"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="156"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="141"/>
-      <c r="C9" s="136" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="160"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="156"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="141"/>
-      <c r="C10" s="136" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="160"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="156"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="141"/>
-      <c r="C11" s="136" t="s">
+      <c r="B11" s="152"/>
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="160"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="156"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141"/>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="160"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="156"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
-      <c r="C13" s="136" t="s">
+      <c r="B13" s="152"/>
+      <c r="C13" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="160"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="156"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
-      <c r="C14" s="136" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="160"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="156"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="143"/>
-      <c r="C15" s="136" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="161"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="164"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="162" t="s">
+      <c r="C16" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="163" t="s">
+      <c r="E16" s="165" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
-      <c r="C17" s="137" t="s">
+      <c r="B17" s="152"/>
+      <c r="C17" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="160"/>
+      <c r="E17" s="156"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="141"/>
-      <c r="C18" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="46" t="s">
+      <c r="B18" s="152"/>
+      <c r="C18" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="160"/>
+      <c r="E18" s="156"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="141"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="160"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="156"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="141"/>
-      <c r="C20" s="136" t="s">
+      <c r="B20" s="152"/>
+      <c r="C20" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="160"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="156"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="141"/>
-      <c r="C21" s="136" t="s">
+      <c r="B21" s="152"/>
+      <c r="C21" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="160"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="156"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="141"/>
-      <c r="C22" s="136" t="s">
+      <c r="B22" s="152"/>
+      <c r="C22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="160"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="156"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="141"/>
-      <c r="C23" s="136" t="s">
+      <c r="B23" s="152"/>
+      <c r="C23" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="160"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="156"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141"/>
-      <c r="C24" s="136" t="s">
+      <c r="B24" s="152"/>
+      <c r="C24" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="160"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="156"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="145"/>
-      <c r="C25" s="136" t="s">
+      <c r="B25" s="154"/>
+      <c r="C25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="157"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="C26" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="166" t="s">
+      <c r="E26" s="155" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="141"/>
-      <c r="C27" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="46" t="s">
+      <c r="B27" s="152"/>
+      <c r="C27" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="160"/>
+      <c r="E27" s="156"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="141"/>
-      <c r="C28" s="137" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="160"/>
+      <c r="E28" s="156"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="141"/>
-      <c r="C29" s="138" t="s">
+      <c r="B29" s="152"/>
+      <c r="C29" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="160"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="156"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="141"/>
-      <c r="C30" s="136" t="s">
+      <c r="B30" s="152"/>
+      <c r="C30" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="160"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="156"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="141"/>
-      <c r="C31" s="136" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="160"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="156"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="141"/>
-      <c r="C32" s="136" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="160"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="156"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="141"/>
-      <c r="C33" s="136" t="s">
+      <c r="B33" s="152"/>
+      <c r="C33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="160"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="156"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="145"/>
-      <c r="C34" s="136" t="s">
+      <c r="B34" s="154"/>
+      <c r="C34" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="165"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="157"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="136" t="s">
+      <c r="C35" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="166" t="s">
+      <c r="E35" s="155" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="141"/>
-      <c r="C36" s="136" t="s">
+      <c r="B36" s="152"/>
+      <c r="C36" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="141"/>
-      <c r="C37" s="136" t="s">
+      <c r="B37" s="152"/>
+      <c r="C37" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="141"/>
-      <c r="C38" s="136" t="s">
+      <c r="B38" s="152"/>
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="141"/>
-      <c r="C39" s="136" t="s">
+      <c r="B39" s="152"/>
+      <c r="C39" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="141"/>
-      <c r="C40" s="136" t="s">
+      <c r="B40" s="152"/>
+      <c r="C40" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="141"/>
-      <c r="C41" s="136" t="s">
+      <c r="B41" s="152"/>
+      <c r="C41" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="141"/>
-      <c r="C42" s="136" t="s">
+      <c r="B42" s="152"/>
+      <c r="C42" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="145"/>
-      <c r="C43" s="136" t="s">
+      <c r="B43" s="154"/>
+      <c r="C43" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="146" t="s">
+      <c r="B44" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="166" t="s">
+      <c r="D44" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="166" t="s">
+      <c r="E44" s="155" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="141"/>
-      <c r="C45" s="136" t="s">
+      <c r="B45" s="152"/>
+      <c r="C45" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="160"/>
-      <c r="E45" s="160"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="141"/>
-      <c r="C46" s="136" t="s">
+      <c r="B46" s="152"/>
+      <c r="C46" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="141"/>
-      <c r="C47" s="136" t="s">
+      <c r="B47" s="152"/>
+      <c r="C47" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="141"/>
-      <c r="C48" s="136" t="s">
+      <c r="B48" s="152"/>
+      <c r="C48" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="141"/>
-      <c r="C49" s="136" t="s">
+      <c r="B49" s="152"/>
+      <c r="C49" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="141"/>
-      <c r="C50" s="136" t="s">
+      <c r="B50" s="152"/>
+      <c r="C50" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="141"/>
-      <c r="C51" s="136" t="s">
+      <c r="B51" s="152"/>
+      <c r="C51" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="143"/>
-      <c r="C52" s="136" t="s">
+      <c r="B52" s="153"/>
+      <c r="C52" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
     </row>
     <row r="53" spans="2:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="136" t="s">
+      <c r="B53" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="167" t="s">
+      <c r="D53" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="99" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="144" t="s">
+      <c r="B54" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="166" t="s">
+      <c r="D54" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="155" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="160"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="156"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="143"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="165"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="E44:E52"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="E6:E15"/>
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="E16:E25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="E26:E34"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5991,7 +5962,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,177 +5973,177 @@
     <col min="5" max="5" width="130.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="91" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="93">
         <v>0</v>
       </c>
-      <c r="D6" s="152">
+      <c r="D6" s="93">
         <v>0</v>
       </c>
-      <c r="E6" s="152" t="s">
+      <c r="E6" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="93">
         <v>0</v>
       </c>
-      <c r="D7" s="152">
+      <c r="D7" s="93">
         <v>0</v>
       </c>
-      <c r="E7" s="152" t="s">
+      <c r="E7" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="152">
+      <c r="C8" s="93">
         <v>0</v>
       </c>
-      <c r="D8" s="152">
+      <c r="D8" s="93">
         <v>0</v>
       </c>
-      <c r="E8" s="152" t="s">
+      <c r="E8" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="93">
         <v>0</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="93">
         <v>0</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="152">
+      <c r="C10" s="93">
         <v>0</v>
       </c>
-      <c r="D10" s="152">
+      <c r="D10" s="93">
         <v>0</v>
       </c>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="169">
+        <v>0</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="167"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="153">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="167"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="167"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="168"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="93">
         <v>0</v>
       </c>
-      <c r="D11" s="153" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="150"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="156" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="150"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="150"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="155"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="152" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="152">
+      <c r="D16" s="93">
         <v>0</v>
       </c>
-      <c r="D16" s="152">
+      <c r="E16" s="93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="95">
         <v>0</v>
       </c>
-      <c r="E16" s="152" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="158">
-        <v>0</v>
-      </c>
-      <c r="D17" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="152" t="s">
-        <v>163</v>
+      <c r="D17" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6189,10 +6160,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474E0F5F-E914-47FD-92E1-EEC037D52E46}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6203,222 +6174,78 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60" t="s">
+      <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="2:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B6:B25"/>
-    <mergeCell ref="C6:C25"/>
-    <mergeCell ref="D6:D25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6429,151 +6256,168 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="115.7109375" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" customWidth="1"/>
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="180" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="180" t="s">
-        <v>84</v>
+      <c r="B3" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="110"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="108"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="108"/>
+    </row>
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="D7" s="108"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="108"/>
+    </row>
+    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="108"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="183"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="187" t="s">
+      <c r="D10" s="108"/>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="109"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="192" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="181"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="187" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="192" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="181"/>
-    </row>
-    <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="187" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="181"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="187" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="179" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="181" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="181"/>
-    </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="187" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="181"/>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="187" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="181"/>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="188" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="191"/>
-      <c r="D11" s="182"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
+      <c r="B16" s="179" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="180" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="181"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="179"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="181"/>
+    </row>
+    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="179" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="181"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="179"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="179"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="182"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6598,70 +6442,70 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>86</v>
+      <c r="B3" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="21"/>
+      <c r="B4" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="184" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="21"/>
+      <c r="B5" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="184" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="21"/>
+      <c r="B6" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="B7" s="184" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="B7" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="184" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="B8" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="184" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="B9" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="21"/>
+      <c r="B10" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="22"/>
+      <c r="B11" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6672,10 +6516,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA68B3-7A7F-42E0-AF49-FB5DAA135759}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,74 +6530,42 @@
     <col min="5" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
-        <v>87</v>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
+      <c r="B3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Reports/Final_report.xlsx
+++ b/Final Reports/Final_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_WHR\Final Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C05B1AB-DF60-436D-8D77-168D9C5A550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE52173-CAED-48C5-8C92-9EBAAA9B3E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="6" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
   <si>
     <t>Column Name</t>
   </si>
@@ -88,39 +88,6 @@
     <t>Visuals</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Money Can't Buy Happiness, or Can It?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="48"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drawing Insights Between GDP and Global Well-Being</t>
-    </r>
-  </si>
-  <si>
     <t>FILE NAME</t>
   </si>
   <si>
@@ -317,9 +284,6 @@
   </si>
   <si>
     <t>Cleaning Notes</t>
-  </si>
-  <si>
-    <t>Jessica W.</t>
   </si>
   <si>
     <t>Original CSV Files</t>
@@ -1004,12 +968,24 @@
 Both data sets indicate a positive correlation which can be observed in the scatterplots above. Removal of the extreme outliers does appear to improve the MSE and R2 scores. However, considering that around 12% of the dataset falls into the outlier category, removal of all outliers might adversely affect the analysis and learning model.
 scripts showcasing this analysis can be found in '6. Supervised Machine Learning'</t>
   </si>
+  <si>
+    <t>Does Money Influence Happiness?</t>
+  </si>
+  <si>
+    <t>January, 2024</t>
+  </si>
+  <si>
+    <t>Jessica Warner, Data Analyst</t>
+  </si>
+  <si>
+    <t>An Exploratory Analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,13 +1058,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1305,8 +1274,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,8 +1345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1978,12 +1968,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2012,60 +2186,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2073,55 +2235,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,95 +2265,95 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2236,40 +2368,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,11 +2414,77 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2297,91 +2495,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2393,37 +2537,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2447,23 +2591,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3062,7 +3257,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="002060"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln/>
       </xdr:spPr>
@@ -3564,6 +3761,11 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3633,30 +3835,73 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Rows x Columns</a:t>
+            <a:t>782 Rows x 14 Columns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Columns Dropped: 1			 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'_merge'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Aggregated Columns: 0</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Columns Dropped: 1</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t> '_merge'</a:t>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Rows</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>Aggregated Columns: </a:t>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> Dropped: 3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4288,149 +4533,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD345A52-DCD4-4A3B-8F44-EED980D9F023}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-    </row>
-    <row r="3" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="184" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+    </row>
+    <row r="2" spans="1:29" s="182" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="186" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="166"/>
+    </row>
+    <row r="5" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="167" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="176"/>
+      <c r="D8" s="177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="175" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="27">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="179">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="30">
+      <c r="C13" s="178"/>
+      <c r="D13" s="179">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="30">
+      <c r="C14" s="178"/>
+      <c r="D14" s="179">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33">
+    <row r="15" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="167" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181">
         <v>9</v>
       </c>
     </row>
@@ -4459,72 +4752,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>94</v>
+      <c r="A1" s="86" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="158" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="156"/>
+      <c r="D6" s="162"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="177" t="s">
+      <c r="C7" s="156"/>
+      <c r="D7" s="162"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="178"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="177" t="s">
+      <c r="C8" s="156"/>
+      <c r="D8" s="162"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="178"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="177" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="178"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="177" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="178"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="162"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="103" t="s">
-        <v>147</v>
+      <c r="B10" s="83" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="18"/>
     </row>
   </sheetData>
@@ -4542,31 +4835,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CC044C-7EF5-4E69-A5CE-5EF7FA9E1E2A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="187" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="188" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="37" t="s">
-        <v>87</v>
+      <c r="B18" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4580,8 +4878,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,16 +4889,16 @@
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:11" s="24" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8"/>
@@ -4608,790 +4906,801 @@
     </row>
     <row r="3" spans="1:11" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
+      <c r="B3" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="B5" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="190" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="192" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="193" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C9" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="193" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="199" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="112"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="112"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="127"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="127"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="127"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="131">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="134"/>
+      <c r="F30" s="131">
+        <v>2017</v>
+      </c>
+      <c r="G30" s="132"/>
+      <c r="H30" s="133">
+        <v>2018</v>
+      </c>
+      <c r="I30" s="134"/>
+      <c r="J30" s="131">
+        <v>2019</v>
+      </c>
+      <c r="K30" s="132"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="D32" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="51" t="s">
+      <c r="J32" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="H34" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="F35" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="136" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="136" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="133" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="128"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="129">
-        <v>2015</v>
-      </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131">
-        <v>2016</v>
-      </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="129">
-        <v>2017</v>
-      </c>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131">
-        <v>2018</v>
-      </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="129">
-        <v>2019</v>
-      </c>
-      <c r="K30" s="130"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="69" t="s">
+      <c r="H35" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="61" t="s">
+      <c r="E40" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="62" t="s">
+      <c r="F40" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="61" t="s">
+      <c r="H40" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="62" t="s">
+      <c r="J40" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="65" t="s">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="61" t="s">
+      <c r="D41" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="62" t="s">
+      <c r="F41" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="61" t="s">
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="62" t="s">
+      <c r="D42" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="65" t="s">
+      <c r="F42" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="61" t="s">
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D43" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E43" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="61" t="s">
+      <c r="F43" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="62" t="s">
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="46"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="78"/>
-    </row>
-    <row r="42" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="78"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="78"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="80"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
@@ -5405,17 +5714,6 @@
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5446,492 +5744,492 @@
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
-      <c r="B2" s="75" t="s">
-        <v>79</v>
+      <c r="B2" s="55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="286.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="B3" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="E5" s="64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="C6" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="136"/>
+      <c r="C7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="140"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="136"/>
+      <c r="C8" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="140"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="136"/>
+      <c r="C9" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="140"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="136"/>
+      <c r="C10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="140"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="136"/>
+      <c r="C11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="140"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="136"/>
+      <c r="C12" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="140"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="136"/>
+      <c r="C13" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="140"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="136"/>
+      <c r="C14" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="140"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="137"/>
+      <c r="C15" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="148"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="136"/>
+      <c r="C17" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="140"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="136"/>
+      <c r="C18" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="140"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="136"/>
+      <c r="C19" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="140"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="136"/>
+      <c r="C20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="140"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="136"/>
+      <c r="C21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="140"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="136"/>
+      <c r="C22" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="140"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="136"/>
+      <c r="C23" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="140"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="136"/>
+      <c r="C24" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="140"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="138"/>
+      <c r="C25" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="77"/>
+      <c r="E25" s="141"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="136"/>
+      <c r="C27" s="65" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="163" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="152"/>
-      <c r="C7" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="D27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="140"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="136"/>
+      <c r="C28" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="140"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="136"/>
+      <c r="C29" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="140"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="136"/>
+      <c r="C30" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="140"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="136"/>
+      <c r="C31" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="140"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="136"/>
+      <c r="C32" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="140"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="136"/>
+      <c r="C33" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="140"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="138"/>
+      <c r="C34" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="141"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="156"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
-      <c r="C8" s="85" t="s">
+      <c r="E35" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="136"/>
+      <c r="C36" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="136"/>
+      <c r="C37" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="136"/>
+      <c r="C38" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="136"/>
+      <c r="C39" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="136"/>
+      <c r="C40" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="136"/>
+      <c r="C41" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="136"/>
+      <c r="C42" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="138"/>
+      <c r="C43" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="136"/>
+      <c r="C45" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="136"/>
+      <c r="C46" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="136"/>
+      <c r="C47" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="136"/>
+      <c r="C48" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="136"/>
+      <c r="C49" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="136"/>
+      <c r="C50" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="136"/>
+      <c r="C51" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="137"/>
+      <c r="C52" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+    </row>
+    <row r="53" spans="2:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="156"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
-      <c r="C9" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="156"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="152"/>
-      <c r="C10" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="156"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="152"/>
-      <c r="C11" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="156"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="152"/>
-      <c r="C12" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="156"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="152"/>
-      <c r="C13" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="156"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="152"/>
-      <c r="C14" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="156"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="153"/>
-      <c r="C15" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="164"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="151" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="165" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="152"/>
-      <c r="C17" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="156"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="152"/>
-      <c r="C18" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="38" t="s">
+      <c r="C53" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="156"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="152"/>
-      <c r="C19" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="156"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="152"/>
-      <c r="C20" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="156"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="152"/>
-      <c r="C21" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="156"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="152"/>
-      <c r="C22" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="156"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="152"/>
-      <c r="C23" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="156"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="152"/>
-      <c r="C24" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="156"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="154"/>
-      <c r="C25" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="157"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="152"/>
-      <c r="C27" s="85" t="s">
+      <c r="E53" s="79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="156"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="152"/>
-      <c r="C28" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="156"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="152"/>
-      <c r="C29" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="156"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="152"/>
-      <c r="C30" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="156"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="152"/>
-      <c r="C31" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="156"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="152"/>
-      <c r="C32" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="156"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="152"/>
-      <c r="C33" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="156"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="154"/>
-      <c r="C34" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="157"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="155" t="s">
+      <c r="C54" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="152"/>
-      <c r="C36" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="152"/>
-      <c r="C37" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="152"/>
-      <c r="C38" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="152"/>
-      <c r="C39" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="152"/>
-      <c r="C40" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="152"/>
-      <c r="C41" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="152"/>
-      <c r="C42" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="154"/>
-      <c r="C43" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="152"/>
-      <c r="C45" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="152"/>
-      <c r="C46" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="152"/>
-      <c r="C47" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="152"/>
-      <c r="C48" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="152"/>
-      <c r="C49" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="152"/>
-      <c r="C50" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="152"/>
-      <c r="C51" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="153"/>
-      <c r="C52" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-    </row>
-    <row r="53" spans="2:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="88" t="s">
+    </row>
+    <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="151" t="s">
+      <c r="E55" s="140"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B55" s="152"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="156"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="153"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="157"/>
+      <c r="E56" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5975,175 +6273,175 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="E5" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="91" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="73">
+        <v>0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="93">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="73">
         <v>0</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D7" s="73">
         <v>0</v>
       </c>
-      <c r="E6" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="93">
+      <c r="E7" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="73">
         <v>0</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D8" s="73">
         <v>0</v>
       </c>
-      <c r="E7" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="93">
+      <c r="E8" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="73">
         <v>0</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D9" s="73">
         <v>0</v>
       </c>
-      <c r="E8" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="93">
+      <c r="E9" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="73">
         <v>0</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D10" s="73">
         <v>0</v>
       </c>
-      <c r="E9" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="93">
+      <c r="E10" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="153">
         <v>0</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D11" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="151"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="151"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="151"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="152"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="73">
         <v>0</v>
       </c>
-      <c r="E10" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="169">
+      <c r="D16" s="73">
         <v>0</v>
       </c>
-      <c r="D11" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="167"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="167"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="168"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="93" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="93">
+      <c r="E16" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="75">
         <v>0</v>
       </c>
-      <c r="D16" s="93">
-        <v>0</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="95">
-        <v>0</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>170</v>
+      <c r="D17" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6176,59 +6474,59 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="41" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="100" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120" t="s">
+      <c r="C6" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>172</v>
+      <c r="D6" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6256,7 +6554,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -6275,149 +6573,149 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="D3" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="107" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="90"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C5" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="88"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="88"/>
+    </row>
+    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="88"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="110"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="88"/>
+    </row>
+    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="108"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="108"/>
-    </row>
-    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="108"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="C9" s="97"/>
+      <c r="D9" s="88"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="108"/>
-    </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="114" t="s">
+      <c r="C10" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="88"/>
+    </row>
+    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="108"/>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="108"/>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="109"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="179" t="s">
+      <c r="D14" s="106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C16" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="106"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+    </row>
+    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="181" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="179"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="179" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="180" t="s">
+      <c r="C18" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="181"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="179"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="181"/>
-    </row>
-    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="179" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="180" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="181"/>
+      <c r="D18" s="106"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="179"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="179"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="181"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="182"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6449,58 +6747,58 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="B7" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="B7" s="111" t="s">
-        <v>98</v>
-      </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="111" t="s">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="92" t="s">
         <v>164</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="111" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="112" t="s">
-        <v>166</v>
       </c>
       <c r="C11" s="18"/>
     </row>
@@ -6532,22 +6830,22 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="17"/>
@@ -6558,11 +6856,11 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
+      <c r="B6" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>

--- a/Final Reports/Final_report.xlsx
+++ b/Final Reports/Final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_WHR\Final Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE52173-CAED-48C5-8C92-9EBAAA9B3E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4384B4-9361-491F-BE6C-F5CEEAA470BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Column Deriviation" sheetId="10" r:id="rId6"/>
     <sheet name="Defining Questions" sheetId="11" r:id="rId7"/>
     <sheet name="Visuals" sheetId="12" r:id="rId8"/>
-    <sheet name="Citations &amp; Appendix" sheetId="13" r:id="rId9"/>
-    <sheet name="Notes)" sheetId="15" r:id="rId10"/>
+    <sheet name="Ethical Considerations, Limitat" sheetId="15" r:id="rId9"/>
+    <sheet name="Citations &amp; Appendix" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk153823770" localSheetId="2">'Data Profiling'!#REF!</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
   <si>
     <t>Column Name</t>
   </si>
@@ -352,21 +352,6 @@
     <t>_merge'</t>
   </si>
   <si>
-    <t>• The insights from this analysis should not be used to draw conclusive evidence, as complex factors beyond the scope of this analysis may impact a country's GDP and happiness perception.</t>
-  </si>
-  <si>
-    <t>• Cultural sensitivity should be at the forefront of the analysis and interpretation of insights. Different cultures have varying perspectives on happiness, and GDP may not capture all aspects of well-being. It's crucial to approach the comparison with cultural sensitivity, recognizing diverse interpretations of happiness.</t>
-  </si>
-  <si>
-    <t>• GDP is just one indicator of a country's well-being and development. Balancing economic indicators with social and environmental considerations is essential for a comprehensive understanding.</t>
-  </si>
-  <si>
-    <t>• Limitations in reporting for both reports may impact available data for some years and influence a country's overall report scores.</t>
-  </si>
-  <si>
-    <t>• Due to the available timeframe of this analysis, only a country's overall total GDP can be analyzed. Future considerations may include the addition of other economic factors when drawing insights across this data.</t>
-  </si>
-  <si>
     <t>Ethical Considerations, Limitations, and Future Research</t>
   </si>
   <si>
@@ -412,64 +397,6 @@
     <t xml:space="preserve">An adjusted value </t>
   </si>
   <si>
-    <r>
-      <t>All initial descriptive statistics on original data sets can be located in Python Script named “1. Data Exploration GDP and WHR 2015 to 2019 CSV Files” in the scripts sub-folder.
-Additional Information on data sourcing can be found in the following documents:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">o	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>World Happiness Ratings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-o	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GDP Indicators 2015 to 2019</t>
-    </r>
-  </si>
-  <si>
     <t>Year listed from 2015 to 2019</t>
   </si>
   <si>
@@ -495,110 +422,6 @@
   </si>
   <si>
     <t>Dystopian Residual - Represents an imaginary country used as a benchmark to measure low happiness.</t>
-  </si>
-  <si>
-    <t>All of the following columns are from the Gallup Survey asking participants to rate their ‘perception’ of this area of their life from 1-10. Values were then calculated and given an expected value of how these values are expected to impact that country’s happiness score. These columns can be summed up to equal the happiness score.</t>
-  </si>
-  <si>
-    <r>
-      <t>Economy (GDP per Capita)-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Measures perceptions of a country's economic performance.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Social Support</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Measures perceptions of perceived strength of social support and family bonds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Health (Life Expectancy)-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Measures perceptions of expected healthy life expectancy of a country’s citizens.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Freedom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Measures the perceived freedom to make life choices.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trust (Government Corruption</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)- Measures the perceived level of trust in government institutions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enerosity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -measures the perceived generosity of a country's citizens.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Column </t>
@@ -689,9 +512,6 @@
   </si>
   <si>
     <t>9 Missing values</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> limitations with time and availability to review additional factors that may impact economy outside of GDP</t>
   </si>
   <si>
     <t>Hypotheses</t>
@@ -943,9 +763,6 @@
     <t>Sustainable Development Solutions Network (2019). World Happiness Report. Retrieved [12/16/23] from  [https://www.kaggle.com/datasets/unsdsn/world-happiness]. Retrieved from [https://databank.worldbank.org/]</t>
   </si>
   <si>
-    <t>Helliwell, J. F., Layard, R., Sachs, J. D., De Neve, J.-E., Aknin, L. B., &amp; Wang, S. (Eds.). (2022). World Happiness Report 2022. New York: Sustainable Development Solutions Network.</t>
-  </si>
-  <si>
     <t>The initial analysis reveals a notable correlation between GDP per capita and happiness scores, although the presence of outliers complicates a thorough examination at this point. The continent of Africa stands out when comparing GDP growth relatively to other countries, showcasing an overlap between perceptions of the economy and happiness scores. This suggests that these countries might be more influenced by economic growth and change compared to nations reporting overall higher GDP and GDP per capita.</t>
   </si>
   <si>
@@ -969,9 +786,6 @@
 scripts showcasing this analysis can be found in '6. Supervised Machine Learning'</t>
   </si>
   <si>
-    <t>Does Money Influence Happiness?</t>
-  </si>
-  <si>
     <t>January, 2024</t>
   </si>
   <si>
@@ -979,13 +793,173 @@
   </si>
   <si>
     <t>An Exploratory Analysis</t>
+  </si>
+  <si>
+    <t>oGDP Indicators 2015 to 2019</t>
+  </si>
+  <si>
+    <t>oWorld Happiness Ratings</t>
+  </si>
+  <si>
+    <r>
+      <t>All initial descriptive statistics on original data sets can be located in Python Script named “1. Data Exploration GDP and WHR 2015 to 2019 CSV Files” in the scripts sub-folder.
+Additional Information on data sourcing can be found in the following documents:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Economy (GDP per Capita)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Measures perceptions of a country's economic performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Social Support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Measures perceptions of perceived strength of social support and family bonds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Health (Life Expectancy)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Measures perceptions of expected healthy life expectancy of a country’s citizens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Freedom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Measures the perceived freedom to make life choices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trust (Government Corruption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)- Measures the perceived level of trust in government institutions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enerosity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -measures the perceived generosity of a country's citizens.</t>
+    </r>
+  </si>
+  <si>
+    <t>All of the following columns are from the Gallup Survey asking participants to rate their ‘perception’ of this area of their life from 1-5. Values were then calculated and given an expected value of how these values are expected to impact that country’s happiness score. These columns can be summed up to equal the happiness score.</t>
+  </si>
+  <si>
+    <t>region column was present in earlier datasets (2015-2017), but not in 2018 or 2019. Script 2. Wrangling and Concating WHR 2015 to 2019' outlines the country mapping that was derived from cross checking the previous region columns to create a new region column that overrode the old one for consistency across the new merged table. A few countries that were newly formed in later years of the data set were manually added by googling their respective region and adding them to that regional mapping if they were only present on the 2018 or 2019 dataset</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>World Bank Group (2023). World Bank, World Development Indicators (GDP by US$). Accessed December,2023].</t>
+  </si>
+  <si>
+    <t>Link to Github repository with all documents and scripts for this project.</t>
+  </si>
+  <si>
+    <t>Tableau Public</t>
+  </si>
+  <si>
+    <t>The primary aim of this project was to showcase proficiency in Python and Tableau Public and create impactful visualizations for analytical purposes in a final presentation. This posed constraints related to time and the defined scope of the analysis, resulting in the exclusion of various factors crucial for a comprehensive understanding.</t>
+  </si>
+  <si>
+    <t>This analysis is meant to be exploratory in nature and is not intended for drawing conclusions to impact policy or define decision-making. Instead, its purpose is to identify possible correlations and insights within overlapping datasets and to pose questions for potential future analytical investigations. Cultural sensitivity is important to keep at the forefront, particularly when discussing aspects of world happiness, considering this is one of the criticisms the World Happiness Report has faced.</t>
+  </si>
+  <si>
+    <t>Opportunities for future analyses and research may include delving deeper into the insights gleaned from this analysis by exploring additional economic variables such as average household income, logged GDP, country wealth gaps, and factors important to developing nations beyond just raw GDP metrics. Additionally, utilizing a dataset spanning from 2012 to the most recent year of the World Happiness Report would offer a broader perspective for comprehensive comparisons in future analyses.</t>
+  </si>
+  <si>
+    <t>Link to the Tableau Public accompanying dashboard</t>
+  </si>
+  <si>
+    <t>Ethical Considerations, Limitations, &amp; Future Research</t>
+  </si>
+  <si>
+    <t>Beyond GDP: Global Prosperity and Happiness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,14 +970,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1026,14 +992,6 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1136,28 +1094,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1166,40 +1103,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF4472C4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1214,14 +1117,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1289,8 +1184,124 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,12 +1317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,8 +1356,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1398,19 +1415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1422,30 +1426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1455,42 +1435,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1518,19 +1468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
@@ -1543,15 +1480,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
@@ -1559,55 +1487,6 @@
         <color theme="4" tint="-0.499984740745262"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1622,19 +1501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1650,21 +1516,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1702,279 +1553,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF203764"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF203764"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF203764"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF203764"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF203764"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF203764"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF203764"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF203764"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF203764"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF203764"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2013,17 +1594,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
@@ -2152,422 +1722,1065 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2575,90 +2788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3899,7 +4028,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> Dropped: 3</a:t>
+            <a:t> Dropped: 0</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -4533,301 +4662,300 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD345A52-DCD4-4A3B-8F44-EED980D9F023}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-    </row>
-    <row r="2" spans="1:29" s="182" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="186" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+    </row>
+    <row r="2" spans="1:29" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="165"/>
+      <c r="B4" s="163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="164"/>
       <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="174" t="s">
+    <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177">
+      <c r="C8" s="29"/>
+      <c r="D8" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="175" t="s">
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179">
+      <c r="C9" s="30"/>
+      <c r="D9" s="159">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="175" t="s">
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179">
+      <c r="C10" s="30"/>
+      <c r="D10" s="159">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="175" t="s">
+      <c r="E10" s="69"/>
+    </row>
+    <row r="11" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179">
+      <c r="C11" s="30"/>
+      <c r="D11" s="159">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="175" t="s">
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179">
+      <c r="C12" s="30"/>
+      <c r="D12" s="159">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="175" t="s">
+      <c r="E12" s="69"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179">
+      <c r="C13" s="30"/>
+      <c r="D13" s="159">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="175" t="s">
+      <c r="E13" s="69"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179">
+      <c r="C14" s="30"/>
+      <c r="D14" s="159">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="167" t="s">
+      <c r="E14" s="69"/>
+    </row>
+    <row r="15" spans="1:29" ht="33" x14ac:dyDescent="0.35">
+      <c r="B15" s="157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="156"/>
+      <c r="D15" s="160">
+        <v>9</v>
+      </c>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181">
-        <v>9</v>
-      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="161">
+        <v>10</v>
+      </c>
+      <c r="E16" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D8" location="'Data Flow'!A1" display="'Data Flow'!A1" xr:uid="{2CD87740-66CF-45CF-B9C8-48587877B0D0}"/>
+    <hyperlink ref="D9" location="'Data Profiling'!A1" display="'Data Profiling'!A1" xr:uid="{BB187832-2F3E-4175-A4AC-F0DB5EC05E2D}"/>
+    <hyperlink ref="D10" location="'Data Cleaning'!A1" display="'Data Cleaning'!A1" xr:uid="{9B66DD57-6EC3-40CE-ACC5-7C2C17F74F34}"/>
+    <hyperlink ref="D11" location="'Data Cleaning'!A1" display="'Data Cleaning'!A1" xr:uid="{99F91229-D0C4-4410-B0B9-A38E5050B319}"/>
+    <hyperlink ref="D12" location="'Column Deriviation'!A1" display="'Column Deriviation'!A1" xr:uid="{CF9C2C24-FC2D-4F97-BAA7-4CB6C704AF4F}"/>
+    <hyperlink ref="D13" location="'Defining Questions'!A1" display="'Defining Questions'!A1" xr:uid="{40F08E11-0FC4-42D6-91BE-0A95855CF7FC}"/>
+    <hyperlink ref="D14" location="Visuals!A1" display="Visuals!A1" xr:uid="{3D69DA12-74CE-4619-A4D1-114D2E1384EF}"/>
+    <hyperlink ref="D15" location="'Ethical Considerations, Limitat'!A1" display="'Ethical Considerations, Limitat'!A1" xr:uid="{4699F017-D7BB-4A85-8FFC-E2BAB317A07C}"/>
+    <hyperlink ref="D16" location="'Citations &amp; Appendix'!A1" display="'Citations &amp; Appendix'!A1" xr:uid="{7AEF5682-119A-42DD-A778-EAD7459DBFDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D03A-366E-438D-835F-F77ED39203F3}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA68B3-7A7F-42E0-AF49-FB5DAA135759}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="158" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="161" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="162"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="162"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="161" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="162"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="162"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="18"/>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="56"/>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{5E229324-1E4C-4D26-84CF-368F008F8881}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{D42C4E18-7156-4853-9587-FB11EA53CF11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4843,27 +4971,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="187" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4876,10 +5004,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12330467-BA53-49D0-8B6E-67B1920A39FD}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4887,846 +5015,902 @@
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="113" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="189" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="191" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="194" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="196"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="186" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="188"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="188"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="115"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="190" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="191" t="s">
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="188"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="188"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="186" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="188"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="186"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188"/>
+    </row>
+    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="186"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="188"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="183" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="185"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="183" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="185"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="185"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="183" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="185"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="185"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="179">
+        <v>2015</v>
+      </c>
+      <c r="C33" s="180"/>
+      <c r="D33" s="181">
+        <v>2016</v>
+      </c>
+      <c r="E33" s="182"/>
+      <c r="F33" s="179">
+        <v>2017</v>
+      </c>
+      <c r="G33" s="180"/>
+      <c r="H33" s="181">
+        <v>2018</v>
+      </c>
+      <c r="I33" s="182"/>
+      <c r="J33" s="179">
+        <v>2019</v>
+      </c>
+      <c r="K33" s="180"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="144" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="147" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="192" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="190" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="191" t="s">
+      <c r="D35" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="193" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="194" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="195" t="s">
+      <c r="J35" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="192" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="196" t="s">
+      <c r="H37" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="197" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="198" t="s">
+      <c r="F38" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="199" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="112"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="110" t="s">
+      <c r="H38" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="112"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127"/>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="127"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="127"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="131">
-        <v>2015</v>
-      </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133">
-        <v>2016</v>
-      </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="131">
-        <v>2017</v>
-      </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133">
-        <v>2018</v>
-      </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="131">
-        <v>2019</v>
-      </c>
-      <c r="K30" s="132"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="41" t="s">
+      <c r="E43" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="42" t="s">
+      <c r="F43" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="41" t="s">
+      <c r="H43" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="42" t="s">
+      <c r="J43" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="45" t="s">
+    </row>
+    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="41" t="s">
+      <c r="D44" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="42" t="s">
+      <c r="F44" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="41" t="s">
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="150"/>
+    </row>
+    <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="42" t="s">
+      <c r="D45" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="45" t="s">
+      <c r="F45" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="150"/>
+    </row>
+    <row r="46" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="42" t="s">
+      <c r="D46" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="41" t="s">
+      <c r="F46" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="42" t="s">
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="150"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="151"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="58"/>
-    </row>
-    <row r="42" spans="2:11" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="58"/>
-    </row>
-    <row r="43" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="46"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="58"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="58"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="150"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="151"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="143"/>
+      <c r="K48" s="150"/>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{99B6BAFC-C88F-4549-9969-005D83A8C4E3}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{45304C4D-BF11-4109-A180-198F7860E9C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7DAA45-EB71-4246-A4AB-A8481A3EF60A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C56"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E55" sqref="B6:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,518 +5921,530 @@
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="55" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="53" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="286.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" ht="275.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="206" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C6" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D6" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146" t="s">
+      <c r="E6" s="123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C7" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E7" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="136"/>
-      <c r="C7" s="65" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="200"/>
+      <c r="C8" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D8" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="140"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136"/>
-      <c r="C8" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="140"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="136"/>
-      <c r="C9" s="65" t="s">
+      <c r="E8" s="204"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="200"/>
+      <c r="C9" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="204"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="200"/>
+      <c r="C10" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="140"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="136"/>
-      <c r="C10" s="65" t="s">
+      <c r="D10" s="119"/>
+      <c r="E10" s="204"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="200"/>
+      <c r="C11" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="140"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="136"/>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="204"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="200"/>
+      <c r="C12" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="140"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="136"/>
-      <c r="C12" s="65" t="s">
+      <c r="D12" s="119"/>
+      <c r="E12" s="204"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="200"/>
+      <c r="C13" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="140"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="136"/>
-      <c r="C13" s="65" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="204"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="200"/>
+      <c r="C14" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="140"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="136"/>
-      <c r="C14" s="65" t="s">
+      <c r="D14" s="119"/>
+      <c r="E14" s="204"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="200"/>
+      <c r="C15" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="140"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="137"/>
-      <c r="C15" s="65" t="s">
+      <c r="D15" s="119"/>
+      <c r="E15" s="204"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="200"/>
+      <c r="C16" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="148"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="135" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="204"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="76" t="s">
+      <c r="C17" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="149" t="s">
+      <c r="E17" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="136"/>
-      <c r="C17" s="66" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="200"/>
+      <c r="C18" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D18" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="140"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="136"/>
-      <c r="C18" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="204"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="200"/>
+      <c r="C19" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="140"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="136"/>
-      <c r="C19" s="67" t="s">
+      <c r="E19" s="204"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="200"/>
+      <c r="C20" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="140"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="136"/>
-      <c r="C20" s="65" t="s">
+      <c r="D20" s="119"/>
+      <c r="E20" s="204"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="200"/>
+      <c r="C21" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="140"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="136"/>
-      <c r="C21" s="65" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="204"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="140"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="136"/>
-      <c r="C22" s="65" t="s">
+      <c r="D22" s="119"/>
+      <c r="E22" s="204"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="140"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="136"/>
-      <c r="C23" s="65" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="204"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="140"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="136"/>
-      <c r="C24" s="65" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="204"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="140"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="138"/>
-      <c r="C25" s="65" t="s">
+      <c r="D25" s="119"/>
+      <c r="E25" s="204"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="141"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="145" t="s">
+      <c r="D26" s="119"/>
+      <c r="E26" s="204"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="C27" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E27" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="136"/>
-      <c r="C27" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="28" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="140"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="136"/>
-      <c r="C28" s="66" t="s">
+      <c r="E28" s="204"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D29" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="140"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="136"/>
-      <c r="C29" s="67" t="s">
+      <c r="E29" s="204"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="140"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="136"/>
-      <c r="C30" s="65" t="s">
+      <c r="D30" s="119"/>
+      <c r="E30" s="204"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="200"/>
+      <c r="C31" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="140"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="136"/>
-      <c r="C31" s="65" t="s">
+      <c r="D31" s="119"/>
+      <c r="E31" s="204"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="200"/>
+      <c r="C32" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="140"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="136"/>
-      <c r="C32" s="65" t="s">
+      <c r="D32" s="119"/>
+      <c r="E32" s="204"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="140"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="136"/>
-      <c r="C33" s="65" t="s">
+      <c r="D33" s="119"/>
+      <c r="E33" s="204"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="200"/>
+      <c r="C34" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="140"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="138"/>
-      <c r="C34" s="65" t="s">
+      <c r="D34" s="119"/>
+      <c r="E34" s="204"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="200"/>
+      <c r="C35" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="141"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="145" t="s">
+      <c r="D35" s="119"/>
+      <c r="E35" s="204"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C36" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="139" t="s">
+      <c r="D36" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="139" t="s">
+      <c r="E36" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="136"/>
-      <c r="C36" s="65" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="200"/>
+      <c r="C37" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="136"/>
-      <c r="C37" s="65" t="s">
+      <c r="D37" s="209"/>
+      <c r="E37" s="204"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="200"/>
+      <c r="C38" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="136"/>
-      <c r="C38" s="65" t="s">
+      <c r="D38" s="209"/>
+      <c r="E38" s="204"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="200"/>
+      <c r="C39" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="136"/>
-      <c r="C39" s="65" t="s">
+      <c r="D39" s="209"/>
+      <c r="E39" s="204"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="200"/>
+      <c r="C40" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="136"/>
-      <c r="C40" s="65" t="s">
+      <c r="D40" s="209"/>
+      <c r="E40" s="204"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="200"/>
+      <c r="C41" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="136"/>
-      <c r="C41" s="65" t="s">
+      <c r="D41" s="209"/>
+      <c r="E41" s="204"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="200"/>
+      <c r="C42" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="136"/>
-      <c r="C42" s="65" t="s">
+      <c r="D42" s="209"/>
+      <c r="E42" s="204"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="200"/>
+      <c r="C43" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="138"/>
-      <c r="C43" s="65" t="s">
+      <c r="D43" s="209"/>
+      <c r="E43" s="204"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="200"/>
+      <c r="C44" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="145" t="s">
+      <c r="D44" s="209"/>
+      <c r="E44" s="204"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C45" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="139" t="s">
+      <c r="D45" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="139" t="s">
+      <c r="E45" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="136"/>
-      <c r="C45" s="65" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="200"/>
+      <c r="C46" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="136"/>
-      <c r="C46" s="65" t="s">
+      <c r="D46" s="209"/>
+      <c r="E46" s="204"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="200"/>
+      <c r="C47" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="136"/>
-      <c r="C47" s="65" t="s">
+      <c r="D47" s="209"/>
+      <c r="E47" s="204"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="200"/>
+      <c r="C48" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="136"/>
-      <c r="C48" s="65" t="s">
+      <c r="D48" s="209"/>
+      <c r="E48" s="204"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="200"/>
+      <c r="C49" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="136"/>
-      <c r="C49" s="65" t="s">
+      <c r="D49" s="209"/>
+      <c r="E49" s="204"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="200"/>
+      <c r="C50" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="136"/>
-      <c r="C50" s="65" t="s">
+      <c r="D50" s="209"/>
+      <c r="E50" s="204"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="200"/>
+      <c r="C51" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="136"/>
-      <c r="C51" s="65" t="s">
+      <c r="D51" s="209"/>
+      <c r="E51" s="204"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="200"/>
+      <c r="C52" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="137"/>
-      <c r="C52" s="65" t="s">
+      <c r="D52" s="209"/>
+      <c r="E52" s="204"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="200"/>
+      <c r="C53" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-    </row>
-    <row r="53" spans="2:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="65" t="s">
+      <c r="D53" s="209"/>
+      <c r="E53" s="204"/>
+    </row>
+    <row r="54" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="B54" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D54" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="79" t="s">
+      <c r="E54" s="124" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="135" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D55" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="139" t="s">
+      <c r="E55" s="204" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="140"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="137"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="141"/>
+    <row r="56" spans="2:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="B56" s="200"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="204"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="201"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="E6:E15"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="D45:D53"/>
+    <mergeCell ref="E45:E53"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="E17:E26"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="E27:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6260,7 +6456,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6271,177 +6467,177 @@
     <col min="5" max="5" width="130.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="111" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="108">
         <v>0</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="108">
         <v>0</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="113" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="108">
         <v>0</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="108">
         <v>0</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="113" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="108">
         <v>0</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="108">
         <v>0</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="113" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="108">
         <v>0</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="108">
         <v>0</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="113" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="108">
         <v>0</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="108">
         <v>0</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="113" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="210" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="211">
+        <v>0</v>
+      </c>
+      <c r="D11" s="211" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="210"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="210"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="210"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="113" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="210"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C16" s="108">
         <v>0</v>
       </c>
-      <c r="D11" s="153" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="151"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="151"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="151"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="152"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="73">
+      <c r="D16" s="108">
         <v>0</v>
       </c>
-      <c r="D16" s="73">
+      <c r="E16" s="113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="115">
         <v>0</v>
       </c>
-      <c r="E16" s="73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="75">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>168</v>
+      <c r="D17" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="116" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6461,7 +6657,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6472,74 +6668,82 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="100" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100" t="s">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="104" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6554,8 +6758,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,156 +6770,156 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="173" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="B4" s="168" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="170"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="88"/>
+      <c r="B5" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="88"/>
+      <c r="B6" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="88"/>
+      <c r="B7" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="92"/>
     </row>
     <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="89"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>176</v>
+      <c r="B14" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="85"/>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="106"/>
+      <c r="B16" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="85"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="106"/>
+      <c r="B18" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="85"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="85"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6729,7 +6933,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,70 +6944,70 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="80" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="17"/>
+      <c r="B4" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="B5" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="76"/>
     </row>
     <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="17"/>
+      <c r="B6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="17"/>
+      <c r="B7" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="76"/>
     </row>
     <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="17"/>
+      <c r="B8" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="B9" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="76"/>
     </row>
     <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="17"/>
+      <c r="B10" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="B11" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6812,58 +7016,83 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA68B3-7A7F-42E0-AF49-FB5DAA135759}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D03A-366E-438D-835F-F77ED39203F3}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+    </row>
+    <row r="7" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="68"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="66"/>
+    </row>
+    <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Reports/Final_report.xlsx
+++ b/Final Reports/Final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_WHR\Final Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4384B4-9361-491F-BE6C-F5CEEAA470BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86113C5D-38EA-4751-ACCC-17B73E2C2DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="182">
   <si>
     <t>Column Name</t>
   </si>
@@ -265,12 +265,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Linked Visual</t>
-  </si>
-  <si>
-    <t>Linked Question</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Visual</t>
   </si>
   <si>
@@ -298,54 +292,6 @@
     <t>Page Content</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Analyst:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Concatenated Files</t>
   </si>
   <si>
@@ -353,21 +299,6 @@
   </si>
   <si>
     <t>Ethical Considerations, Limitations, and Future Research</t>
-  </si>
-  <si>
-    <t>1.How strongly is a country's GDP correlated with its happiness score?</t>
-  </si>
-  <si>
-    <t>2. Are the wealthiest countries by year ranked the happiest by the WHR?</t>
-  </si>
-  <si>
-    <t>3. Do any indicators of happiness correlate with the growth or decline of a countries overall GDP?</t>
-  </si>
-  <si>
-    <t>4. Are there certain regions of the world that are happier and/or wealthier based on these reports? How does regional economic development relate to regional happiness levels?</t>
-  </si>
-  <si>
-    <t>3. Do any indicators of happiness correlate with the growth or decline of a countries overall GDP per capita?</t>
   </si>
   <si>
     <t>Country</t>
@@ -523,226 +454,13 @@
     <t>Null Hypothesis</t>
   </si>
   <si>
-    <t>2. Happiness scores vary significantly among regions, with some regions consistently reporting higher levels of happiness compared to others.</t>
-  </si>
-  <si>
     <t>There is no significant correlation between GDP per capita and the happiness score.</t>
   </si>
   <si>
-    <t>There is no significant difference in happiness scores across different regions.</t>
-  </si>
-  <si>
-    <t>3. The relationship between GDP per capita and happiness scores differs significantly among the different regions of the world</t>
-  </si>
-  <si>
     <t>There is no regional variation in the relationship between GDP per capita and happiness scores in different world regions.</t>
   </si>
   <si>
     <t>1.How strongly is a country's economic indicators correlated with its happiness score?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial correlational testing does not indicate strong correlations between total GDP and GDP annual growth and overall happiness score. However,a positive correlation can be drawn between the 'perception' of a good economy from the World Happiness Report participant survey and reported GDP per capita reported from the World Bank. </t>
-  </si>
-  <si>
-    <t>2. Are the wealthiest countries in the world also  ranked the happiest by the WHR?</t>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As a county’s GDP increased or decreases do any specific indicators of happiness show correlated changes?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can a country’s GDP predict a certain percentage of a happiness indicator will be achieved when it is at or above a specific threshold (E.G. the top 5% of the worlds GDP contributors)? Are there any strong correlations found in the data?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Are there any outliers where a country's happiness is disproportionately high or low given its GDP?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How have the relationships between GDP and happiness changed over time?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As a county’s GDP increased or decreases do any specific indicators of happiness show correlated changes?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can a country’s GDP predict a certain percentage of a happiness indicator will be achieved when it is at or above a specific threshold (E.G. the top 5% of the worlds GDP contributors)? Are there any strong correlations found in the data?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Are there any outliers where a country's happiness is disproportionately high or low given its GDP?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How have the relationships between GDP and happiness changed over time?</t>
-    </r>
-  </si>
-  <si>
-    <t>When reviewing GDP per capita versus happiness scores across various regions of the world, initial analysis appears to confirm general overlap with these two variables shown in the three charts Linked in viausal 2</t>
-  </si>
-  <si>
-    <t>Additional variables that may have correlation between GDP growth or decline are perception of social support, healthy life expectancy, and perceptions of government corruption.</t>
   </si>
   <si>
     <t xml:space="preserve">25 rows with NaN values
@@ -761,29 +479,6 @@
   </si>
   <si>
     <t>Sustainable Development Solutions Network (2019). World Happiness Report. Retrieved [12/16/23] from  [https://www.kaggle.com/datasets/unsdsn/world-happiness]. Retrieved from [https://databank.worldbank.org/]</t>
-  </si>
-  <si>
-    <t>The initial analysis reveals a notable correlation between GDP per capita and happiness scores, although the presence of outliers complicates a thorough examination at this point. The continent of Africa stands out when comparing GDP growth relatively to other countries, showcasing an overlap between perceptions of the economy and happiness scores. This suggests that these countries might be more influenced by economic growth and change compared to nations reporting overall higher GDP and GDP per capita.</t>
-  </si>
-  <si>
-    <t>China, South America (observed in Chloropleth maps)</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Test Data:
-Slope: [[3.9050219e-05]]
-Mean squared error:  0.662360471885746
-R2 score:  0.4694965640931894
-Testing Data after outliers were removed:
-Slope: [[4.73874169e-05]]
-Mean squared error:  0.5897324497872984
-R2 score:  0.5310132425156725
-Slope indicates a positive, but relatively weak correlation between GDP_per_capita and happiness score. MSE indicates a high variance between actual and predicted values and suggests possible concerns for overfitting in the training dataset. R2 values indicate that approximately 46% of the variance in happiness_score can be explained by the linear relationship with GDP_per_capita, giving a moderate level of explanatory power between variables.
-Results from the initial analysis do not strongly support the hypothesis that 'Higher GDP per capita is positively correlated with a higher happiness score.' The presence of high outliers may complicate the analysis and skew results. The analysis will be run again, but after removing high outliers to see if performance improves.
-Both data sets indicate a positive correlation which can be observed in the scatterplots above. Removal of the extreme outliers does appear to improve the MSE and R2 scores. However, considering that around 12% of the dataset falls into the outlier category, removal of all outliers might adversely affect the analysis and learning model.
-scripts showcasing this analysis can be found in '6. Supervised Machine Learning'</t>
   </si>
   <si>
     <t>January, 2024</t>
@@ -937,9 +632,6 @@
     <t>Tableau Public</t>
   </si>
   <si>
-    <t>The primary aim of this project was to showcase proficiency in Python and Tableau Public and create impactful visualizations for analytical purposes in a final presentation. This posed constraints related to time and the defined scope of the analysis, resulting in the exclusion of various factors crucial for a comprehensive understanding.</t>
-  </si>
-  <si>
     <t>This analysis is meant to be exploratory in nature and is not intended for drawing conclusions to impact policy or define decision-making. Instead, its purpose is to identify possible correlations and insights within overlapping datasets and to pose questions for potential future analytical investigations. Cultural sensitivity is important to keep at the forefront, particularly when discussing aspects of world happiness, considering this is one of the criticisms the World Happiness Report has faced.</t>
   </si>
   <si>
@@ -953,13 +645,509 @@
   </si>
   <si>
     <t>Beyond GDP: Global Prosperity and Happiness</t>
+  </si>
+  <si>
+    <t>Related to Question</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. How strongly is a country's GDP correlated with its happiness score?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Info on Graphics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Depicted visuals include a correlational heatmap that indicated correlations between intersecting variables. 
+The scatterplot depicts the plot that was created during linear regressive analysis between GDP per capita and happiness scores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Are the wealthiest countries by year ranked the happiest by the WHR?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Info on Graphics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bar charts are in decending order of the top 15 countries in their respective categories.</t>
+    </r>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>This hypotheses was discussed in key question one and is explored in script '6.Supervised Machine Learning'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Are there certain regions of the world that are happier and/or wealthier based on these reports? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Info on Graphics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+on the left is a bar graph showing the AVG happiness scores of grouped regions in descending order. Underneath is an accompanying geospation chart for a visual of regions with the same data </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How does regional economic development relate to regional happiness levels?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Are there certain regions of the world that are happier and/or wealthier based on these reports? </t>
+  </si>
+  <si>
+    <t>2. The relationship between GDP per capita and happiness scores differs significantly among the different regions of the world</t>
+  </si>
+  <si>
+    <t>This hypotheses was discussed in key question four and is explored in script '7.Unsupervised Machine Learning'</t>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Are there any outliers where a country's happiness is disproportionately high or low given its GDP?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How have the relationships between GDP and happiness changed over time?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyst:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How have the relationships between GDP and happiness changed over time?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Info on Graphics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Time series analysis depictingthe avererages of the world in their respective categories.
+The two charts below were created in Tableau due to time constaints at the end of this analysis. They depict regional subsets of the same averages over time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Are there any outliers where a country's happiness is disproportionately high or low given its GDP?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Info on Graphics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This chart was created on tableau given the amount of countries that required mapping and the functionality needed for this visulization process.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Are the wealthiest countries in the world also ranked the happiest by the WHR?</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How does regional economic development relate to regional happiness levels?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Info on Graphics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The chart on the left was created using unsupervised machine learning using the KMEANS algorythm. 
+The chart on the right was formed in Tableau using the clustering program</t>
+    </r>
+  </si>
+  <si>
+    <t>Correlational testing conducted in the Python script '4.EDA' explored the relationships between happiness score and various economic metrics, including total GDP, GDP per capita, and GDP per capita annual growth percentage. Notably, GDP per capita exhibited the highest positive correlation with a value of 0.71. To provide a benchmark, a similar test on the perception of the economy, a metric from the World Happiness Report, revealed an even higher correlation of 0.79.
+Taking a deeper dive into GDP per capita, the script '6. supervised machine learning' employed linear regression techniques. The initial analysis moderately supported the hypothesis of a positive correlation between higher GDP per capita and happiness scores. However, the presence of outliers added complexity to the linear analysis. In the final process, extreme outliers were removed, resulting in a visual representation with a slope of '4.73874169e-05' and an R2 score of 53%, slightly improving  the nature of the relationship between GDP per capita and happiness scores.</t>
+  </si>
+  <si>
+    <t>The top 15 countries were pulled from the data set and their averages were pulled from 2015 to 2019 for happiness scores and their average GDP per capita. Upon comparing country prevalence across charts, it's observed that 11 countries are consistently represented on both charts. Notably, it's important to highlight that GDP per capita includes Puerto Rico, as the World Bank does not distinguish Puerto Rico's GDP from that of the United States. This inclusion accounts for a prevalence rate of 73% among the top 15 countries. This consideration adds a layer of nuance to the interpretation of the data, recognizing the unique status of Puerto Rico in the analysis.</t>
+  </si>
+  <si>
+    <t>The visuals section includes comparison bar charts that present the average means of world happiness scores and GDP per capita across grouped regions. In general, minimal variation is observed in regional changes between the two variables, typically resulting in movements of one place up or down in their respective categories. However, there is a notable exception in the case of Latin America and the Caribbean Islands, which make a significant leap of 5 places forward. Intriguingly, this shift occurs despite having a lower GDP per capita, suggesting that other factors contribute to the region's higher happiness score.
+Additionally, geospatial maps below offer a visual representation of the data. It's important to note that extreme outliers in the GDP per capita column limit the clarity of the chart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMEANS clustering was used to determine if any regional subsets of data would stand out in regards to GDP per capita and happiness scores.  Due to the time sensitive nature of this project, the chart was created in Tableau using their K-Means algorythm after an error was found in the original python scripts. The Python data requires additional processing through PCA reformation before applying K-Means—a step that time constraints currently prevent from completion. 
+A distinct upward trend emerges when reading the data from Cluster 3 to Cluster 1. Moving from right to left, both GDP per Capita and Avg. Happiness scores consistently increase within each cluster. This trend suggests a positive correlation between economic prosperity (GDP per Capita) and happiness scores. When the data was geospatially analyzed distinct regional areas could be observed in the world between the clustsers. </t>
+  </si>
+  <si>
+    <t>Given the moderate R2 score between GDP per capita and world happiness scores, a closer examination was conducted on countries exhibiting disproportionate wealth gaps in relation to happiness scores. Notably, certain countries stood out on both ends of the spectrum, displaying both lower GDP per capita with higher happiness scores and vice versa.
+To capture this trend efficiently, a heat map was created, considering the extensive list of over 150 countries in the World Happiness Report. This visual representation allows for a quick observation of the data, with countries that significantly deviate in color from their surrounding squares drawing attention. Variances in color indicate whether their happiness scores are notably higher (a darker shade of blue) or lower (greenish yellow) than their peer countries in a similar economic bracket.</t>
+  </si>
+  <si>
+    <t>Visuals created depict both the average world scores and Regional scores for comparison. 
+Overall regional happiness scores depict relatively minimal changes over time. On a worldwide scale there is a noticeable changes from the years of 2016 to 2017 with a downward trend and then a incline in the following years. Given that the World Happiness Report is only collected once yearly and results are provided at the end of that reported year, there is some speculation that when participants are reporting on their current happiness levels they may be more impacted by the previous year's reported metrics than the year of the reported happiness score. This would be an area to explore further in a future analysis of this subject.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The primary aim of this project was to showcase proficiency in Python and Tableau Public and create impactful visualizations for analytical purposes in a final presentation. This posed constraints related to time and the defined scope of the analysis, resulted in the exclusion of various factors crucial for a comprehensive understanding of the complexity of a topic like happiness. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,20 +1182,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="4"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF2F5496"/>
       <name val="Calibri Light"/>
@@ -1016,13 +1190,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1135,13 +1302,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1277,28 +1437,97 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
+      <sz val="48"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1369,7 +1598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -2076,45 +2305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -2177,99 +2367,212 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
       </left>
       <right style="thin">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </left>
-      <right style="thin">
-        <color theme="4"/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </left>
       <right style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </left>
-      <right style="thin">
-        <color theme="4"/>
+      <right style="medium">
+        <color rgb="FF002060"/>
       </right>
       <top style="medium">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
+      <left style="medium">
+        <color rgb="FF002060"/>
       </left>
       <right style="medium">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2278,99 +2581,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,87 +2680,49 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2489,80 +2740,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2570,224 +2872,233 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4044,22 +4355,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>217713</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>266701</xdr:rowOff>
+      <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5076824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5122026</xdr:rowOff>
+      <xdr:colOff>7010398</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1819448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0189DC2B-00C6-4E95-AD36-6A5EA7F0062E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E870B3-2797-3D81-0F01-15E32298476A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,8 +4392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210175" y="1514476"/>
-          <a:ext cx="4914899" cy="4855325"/>
+          <a:off x="5265963" y="1496787"/>
+          <a:ext cx="6792685" cy="6813268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4108,22 +4419,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5219700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>8648138</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10134600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5114925</xdr:rowOff>
+      <xdr:colOff>14015695</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD86EEA-D801-0B13-B2D1-F7C7C40D46E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF8B9B3-0E46-F342-B3B1-F28C41B1DB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4145,8 +4456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10267950" y="1447800"/>
-          <a:ext cx="4914900" cy="4914900"/>
+          <a:off x="13696388" y="14086113"/>
+          <a:ext cx="5367557" cy="5306787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4172,22 +4483,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>201387</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>408214</xdr:rowOff>
+      <xdr:colOff>794659</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5539556</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3942652</xdr:rowOff>
+      <xdr:colOff>6564534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>262898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BD9913-0158-B018-6117-5593F59690CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F228BDD2-B133-E685-DBAC-9AEE3EF6159F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,8 +4520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5249637" y="6858000"/>
-          <a:ext cx="5338169" cy="3534438"/>
+          <a:off x="5842909" y="14037126"/>
+          <a:ext cx="5769875" cy="5351972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4236,22 +4547,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10659366</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>340179</xdr:rowOff>
+      <xdr:colOff>8577943</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15311101</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5048250</xdr:rowOff>
+      <xdr:colOff>14073498</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5128161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
+        <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C2B47A-5D13-D798-3461-E8E0D9099F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF83D97-1F7E-D3DE-BDBB-AE73178F2169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4273,8 +4584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15707616" y="6789965"/>
-          <a:ext cx="4651735" cy="4708071"/>
+          <a:off x="13626193" y="8814707"/>
+          <a:ext cx="5495555" cy="5038354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4300,22 +4611,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5715000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>367393</xdr:rowOff>
+      <xdr:colOff>1121549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>10434295</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5030885</xdr:rowOff>
+      <xdr:colOff>6223911</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5114874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
+        <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7D6B72-6AFE-2EFA-3079-D32AE4E0C746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C212A3-460B-546A-717D-874781ED7303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,8 +4648,658 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10763250" y="6817179"/>
-          <a:ext cx="4719295" cy="4663492"/>
+          <a:off x="6169799" y="8801420"/>
+          <a:ext cx="5102362" cy="5038354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187577</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>522513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6127122</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5080906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FEB9FF-4FF9-3CC4-2059-D214C12FE72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="797177" y="19648713"/>
+          <a:ext cx="10378195" cy="4558393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6387193</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>495299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16770409</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5091118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36281632-FA93-4AD1-45F4-B46FB5E4D4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11435443" y="19621499"/>
+          <a:ext cx="10383216" cy="4595819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7470321</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16452094</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1772650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6997C3DB-6221-4C07-E6C9-FD37C5623364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12518571" y="1496787"/>
+          <a:ext cx="8981773" cy="6766470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6114110</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1298266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5655DD9D-61B1-E22E-B67E-EB54EFF9C77E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310188" y="40257412"/>
+          <a:ext cx="5852172" cy="4391510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9496425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15348597</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1274454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62A5E88-10D6-D87C-A050-281AA81D0FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14544675" y="39709725"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7696201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16513642</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5135015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5281FD-5D0D-5758-8906-3E186F6769BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12744451" y="44357925"/>
+          <a:ext cx="8817441" cy="3601490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2536030</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1564481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7049524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56945A09-8732-76F7-EF4E-14CCB42DF783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143249" y="44915137"/>
+          <a:ext cx="8954525" cy="3639160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1116958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5163938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0E8FC7-57DC-BFD2-AE85-742409D4E363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="30213300"/>
+          <a:ext cx="18147658" cy="9945488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3343730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4943588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C03EFE-1635-75C0-AE06-F02347D8EA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="38338580"/>
+          <a:ext cx="3143250" cy="1599858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5201699</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135A4BE8-89D1-8B14-04FE-354F1365E8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5167313" y="24536400"/>
+          <a:ext cx="5082636" cy="5114805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6405562</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13540805</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA98E564-5755-2C36-F682-F413869EB883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11453812" y="24595931"/>
+          <a:ext cx="7135243" cy="5110162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4664,205 +5625,205 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-    </row>
-    <row r="2" spans="1:29" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
+      <c r="A1" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+    </row>
+    <row r="2" spans="1:29" s="29" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="A4" s="169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="167" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
-        <v>81</v>
+      <c r="B7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="158">
+      <c r="C8" s="26"/>
+      <c r="D8" s="132">
         <v>2</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="159">
+      <c r="C9" s="27"/>
+      <c r="D9" s="133">
         <v>3</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="159">
+      <c r="C10" s="27"/>
+      <c r="D10" s="133">
         <v>4</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="159">
+      <c r="C11" s="27"/>
+      <c r="D11" s="133">
         <v>5</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="159">
+      <c r="B12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="133">
         <v>6</v>
       </c>
-      <c r="E12" s="69"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="159">
+      <c r="C13" s="27"/>
+      <c r="D13" s="133">
         <v>7</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="159">
+      <c r="C14" s="27"/>
+      <c r="D14" s="133">
         <v>8</v>
       </c>
-      <c r="E14" s="69"/>
-    </row>
-    <row r="15" spans="1:29" ht="33" x14ac:dyDescent="0.35">
-      <c r="B15" s="157" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="160">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="131"/>
+      <c r="D15" s="134">
         <v>9</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="161">
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="135">
         <v>10</v>
       </c>
-      <c r="E16" s="69"/>
+      <c r="E16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4889,7 +5850,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,58 +5859,58 @@
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
-        <v>75</v>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="163" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="54" t="s">
-        <v>76</v>
+      <c r="B3" s="47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
-        <v>157</v>
+      <c r="B4" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
-        <v>177</v>
+      <c r="B6" s="58" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="56"/>
+      <c r="B8" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>178</v>
+      <c r="B9" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>183</v>
+      <c r="B10" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4965,34 +5926,32 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>79</v>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>85</v>
+      <c r="B18" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5007,11 +5966,12 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:K49"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
@@ -5019,854 +5979,854 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="189" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="47"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="47"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="191" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
+      <c r="B8" s="190" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="191"/>
+      <c r="D8" s="192"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="107" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="129" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="196" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="185" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="185" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="185" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="185" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+    </row>
+    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="182" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="182" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="175" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="178">
+        <v>2015</v>
+      </c>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180">
+        <v>2016</v>
+      </c>
+      <c r="E33" s="181"/>
+      <c r="F33" s="178">
+        <v>2017</v>
+      </c>
+      <c r="G33" s="179"/>
+      <c r="H33" s="180">
+        <v>2018</v>
+      </c>
+      <c r="I33" s="181"/>
+      <c r="J33" s="178">
+        <v>2019</v>
+      </c>
+      <c r="K33" s="179"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="134" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="133" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="129" t="s">
+      <c r="D35" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="130" t="s">
+      <c r="J35" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="128" t="s">
+      <c r="H37" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="138" t="s">
+      <c r="F38" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="139" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="196"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="197" t="s">
+      <c r="H38" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="199"/>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="186" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="188"/>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="186" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="188"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="186" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="188"/>
-    </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="186" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="188"/>
-    </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="186" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="188"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="186"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="188"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="188"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="186"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="183" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="185"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="183" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="185"/>
-    </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="183" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="185"/>
-    </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="183" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="185"/>
-    </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="183" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="185"/>
-    </row>
-    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="176" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="178"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="179">
-        <v>2015</v>
-      </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="181">
-        <v>2016</v>
-      </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="179">
-        <v>2017</v>
-      </c>
-      <c r="G33" s="180"/>
-      <c r="H33" s="181">
-        <v>2018</v>
-      </c>
-      <c r="I33" s="182"/>
-      <c r="J33" s="179">
-        <v>2019</v>
-      </c>
-      <c r="K33" s="180"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="146" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="147" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="140" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="140" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="140" t="s">
+      <c r="E43" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="141" t="s">
+      <c r="F43" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="140" t="s">
+      <c r="H43" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="141" t="s">
+      <c r="J43" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J38" s="140" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="149" t="s">
+    </row>
+    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="140" t="s">
+      <c r="D44" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="141" t="s">
+      <c r="F44" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="140" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="140" t="s">
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="125"/>
+    </row>
+    <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="141" t="s">
+      <c r="D45" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="149" t="s">
+      <c r="F45" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="148" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="140" t="s">
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="125"/>
+    </row>
+    <row r="46" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="141" t="s">
+      <c r="D46" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="140" t="s">
+      <c r="F46" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="141" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="141" t="s">
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="125"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="126"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="141" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="140" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="148" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="140" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="150"/>
-    </row>
-    <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="150"/>
-    </row>
-    <row r="46" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="140" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="150"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="151"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="141" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="143"/>
-      <c r="K47" s="150"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="125"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="151"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="150"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="125"/>
     </row>
     <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="152"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="155"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5909,9 +6869,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E55" sqref="B6:E57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5921,511 +6879,511 @@
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="275.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="206" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="B4" s="205" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="123" t="s">
-        <v>117</v>
+      <c r="E6" s="98" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="118" t="s">
+      <c r="C7" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="204" t="s">
+      <c r="E7" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="200"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="199"/>
+      <c r="C8" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="204"/>
+      <c r="E8" s="203"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="200"/>
-      <c r="C9" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="204"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="203"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="200"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="199"/>
+      <c r="C10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="204"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="203"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="200"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="204"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="203"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="200"/>
-      <c r="C12" s="117" t="s">
+      <c r="B12" s="199"/>
+      <c r="C12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="204"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="203"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="200"/>
-      <c r="C13" s="117" t="s">
+      <c r="B13" s="199"/>
+      <c r="C13" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="204"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="203"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="200"/>
-      <c r="C14" s="117" t="s">
+      <c r="B14" s="199"/>
+      <c r="C14" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="204"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="203"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="200"/>
-      <c r="C15" s="117" t="s">
+      <c r="B15" s="199"/>
+      <c r="C15" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="204"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="203"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="200"/>
-      <c r="C16" s="117" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="204"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="203"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="118" t="s">
+      <c r="C17" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="204" t="s">
+      <c r="E17" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="200"/>
-      <c r="C18" s="117" t="s">
+      <c r="B18" s="199"/>
+      <c r="C18" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="204"/>
+      <c r="E18" s="203"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="200"/>
-      <c r="C19" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="118" t="s">
+      <c r="B19" s="199"/>
+      <c r="C19" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="204"/>
+      <c r="E19" s="203"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="117" t="s">
+      <c r="B20" s="199"/>
+      <c r="C20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="204"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="203"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="117" t="s">
+      <c r="B21" s="199"/>
+      <c r="C21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="204"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="203"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="117" t="s">
+      <c r="B22" s="199"/>
+      <c r="C22" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="204"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="203"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="117" t="s">
+      <c r="B23" s="199"/>
+      <c r="C23" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="204"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="203"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="117" t="s">
+      <c r="B24" s="199"/>
+      <c r="C24" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="204"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="203"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="117" t="s">
+      <c r="B25" s="199"/>
+      <c r="C25" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="204"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="203"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="117" t="s">
+      <c r="B26" s="199"/>
+      <c r="C26" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="204"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="203"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="118" t="s">
+      <c r="C27" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="118" t="s">
+      <c r="B28" s="199"/>
+      <c r="C28" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="204"/>
+      <c r="E28" s="203"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="199"/>
+      <c r="C29" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="204"/>
+      <c r="E29" s="203"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="199"/>
+      <c r="C30" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="204"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="203"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="117" t="s">
+      <c r="B31" s="199"/>
+      <c r="C31" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="204"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="203"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="117" t="s">
+      <c r="B32" s="199"/>
+      <c r="C32" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="204"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="203"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="117" t="s">
+      <c r="B33" s="199"/>
+      <c r="C33" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="204"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="203"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="200"/>
-      <c r="C34" s="117" t="s">
+      <c r="B34" s="199"/>
+      <c r="C34" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="204"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="203"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="200"/>
-      <c r="C35" s="117" t="s">
+      <c r="B35" s="199"/>
+      <c r="C35" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="204"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="203"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="200" t="s">
+      <c r="B36" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="209" t="s">
+      <c r="D36" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="204" t="s">
+      <c r="E36" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="200"/>
-      <c r="C37" s="117" t="s">
+      <c r="B37" s="199"/>
+      <c r="C37" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="209"/>
-      <c r="E37" s="204"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="203"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="200"/>
-      <c r="C38" s="117" t="s">
+      <c r="B38" s="199"/>
+      <c r="C38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="204"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="203"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="200"/>
-      <c r="C39" s="117" t="s">
+      <c r="B39" s="199"/>
+      <c r="C39" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="204"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="203"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="200"/>
-      <c r="C40" s="117" t="s">
+      <c r="B40" s="199"/>
+      <c r="C40" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="209"/>
-      <c r="E40" s="204"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="203"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="200"/>
-      <c r="C41" s="117" t="s">
+      <c r="B41" s="199"/>
+      <c r="C41" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="209"/>
-      <c r="E41" s="204"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="203"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="200"/>
-      <c r="C42" s="117" t="s">
+      <c r="B42" s="199"/>
+      <c r="C42" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="204"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="203"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="200"/>
-      <c r="C43" s="117" t="s">
+      <c r="B43" s="199"/>
+      <c r="C43" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="209"/>
-      <c r="E43" s="204"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="203"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="200"/>
-      <c r="C44" s="117" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="209"/>
-      <c r="E44" s="204"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="203"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="209" t="s">
+      <c r="D45" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="204" t="s">
+      <c r="E45" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="200"/>
-      <c r="C46" s="117" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="209"/>
-      <c r="E46" s="204"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="203"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="200"/>
-      <c r="C47" s="117" t="s">
+      <c r="B47" s="199"/>
+      <c r="C47" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="209"/>
-      <c r="E47" s="204"/>
+      <c r="D47" s="208"/>
+      <c r="E47" s="203"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="200"/>
-      <c r="C48" s="117" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="209"/>
-      <c r="E48" s="204"/>
+      <c r="D48" s="208"/>
+      <c r="E48" s="203"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="200"/>
-      <c r="C49" s="117" t="s">
+      <c r="B49" s="199"/>
+      <c r="C49" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="209"/>
-      <c r="E49" s="204"/>
+      <c r="D49" s="208"/>
+      <c r="E49" s="203"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="200"/>
-      <c r="C50" s="117" t="s">
+      <c r="B50" s="199"/>
+      <c r="C50" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="209"/>
-      <c r="E50" s="204"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="203"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="200"/>
-      <c r="C51" s="117" t="s">
+      <c r="B51" s="199"/>
+      <c r="C51" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="209"/>
-      <c r="E51" s="204"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="203"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="200"/>
-      <c r="C52" s="117" t="s">
+      <c r="B52" s="199"/>
+      <c r="C52" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="209"/>
-      <c r="E52" s="204"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="203"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="200"/>
-      <c r="C53" s="117" t="s">
+      <c r="B53" s="199"/>
+      <c r="C53" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="209"/>
-      <c r="E53" s="204"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="203"/>
     </row>
     <row r="54" spans="2:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="B54" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="117" t="s">
+      <c r="B54" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="118" t="s">
+      <c r="D54" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="124" t="s">
+      <c r="E54" s="99" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="200" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="202" t="s">
+      <c r="B55" s="199" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="204" t="s">
+      <c r="D55" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="203" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B56" s="200"/>
-      <c r="C56" s="202"/>
-      <c r="D56" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="204"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="201"/>
+      <c r="D56" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="203"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="201"/>
-      <c r="C57" s="203"/>
-      <c r="D57" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="205"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6455,9 +7413,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6467,177 +7423,177 @@
     <col min="5" max="5" width="130.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="163" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="86" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="83">
         <v>0</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="83">
         <v>0</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="83">
         <v>0</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="83">
         <v>0</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="83">
         <v>0</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="83">
         <v>0</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="83">
         <v>0</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="83">
         <v>0</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="83">
         <v>0</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="83">
         <v>0</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="88" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="210" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="211">
+      <c r="B11" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="210">
         <v>0</v>
       </c>
-      <c r="D11" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>125</v>
+      <c r="D11" s="210" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="113" t="s">
+      <c r="B12" s="209"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="209"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="209"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="209"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="83">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83">
+        <v>0</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="90">
+        <v>0</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="210"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="210"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="210"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="108">
-        <v>0</v>
-      </c>
-      <c r="D16" s="108">
-        <v>0</v>
-      </c>
-      <c r="E16" s="113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="115">
-        <v>0</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="116" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6656,9 +7612,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6668,82 +7622,82 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="163" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>156</v>
+      <c r="D6" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="79" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="104" t="s">
-        <v>175</v>
+      <c r="E8" s="79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6756,170 +7710,128 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B585F61-4F5F-4394-BA03-742D06B0C531}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="115.7109375" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" customWidth="1"/>
-    <col min="5" max="5" width="120.28515625" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="163" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="173" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="168" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="169" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="170"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="92"/>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="92"/>
-    </row>
-    <row r="7" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="92"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="92"/>
-    </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="92"/>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="92"/>
-    </row>
-    <row r="11" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="83" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="144" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="147"/>
+    </row>
+    <row r="7" spans="1:4" ht="159.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="213"/>
+    </row>
+    <row r="8" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="214" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="85" t="s">
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="85"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="85"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="85"/>
-    </row>
-    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="85"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="84"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="85"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="85"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6930,10 +7842,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA7D07B-05C6-4CF8-A72A-BD25568C5C01}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6944,71 +7856,77 @@
     <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="163" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>74</v>
+      <c r="B3" s="171" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="172" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="76"/>
-    </row>
-    <row r="6" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="76"/>
-    </row>
-    <row r="7" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="76"/>
-    </row>
-    <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="76"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="76"/>
-    </row>
-    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="76"/>
-    </row>
-    <row r="11" spans="1:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="78"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-    </row>
+      <c r="B4" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="154"/>
+    </row>
+    <row r="5" spans="1:3" ht="174" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="153"/>
+    </row>
+    <row r="7" spans="1:3" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="150"/>
+    </row>
+    <row r="8" spans="1:3" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="146"/>
+      <c r="C8" s="151"/>
+    </row>
+    <row r="9" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="159" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="150"/>
+    </row>
+    <row r="10" spans="1:3" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="160"/>
+      <c r="C10" s="151"/>
+    </row>
+    <row r="11" spans="1:3" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="150"/>
+    </row>
+    <row r="12" spans="1:3" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="160"/>
+      <c r="C12" s="151"/>
+    </row>
+    <row r="13" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="159" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="150"/>
+    </row>
+    <row r="14" spans="1:3" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="161"/>
+      <c r="C14" s="151"/>
+    </row>
+    <row r="15" spans="1:3" ht="261" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7019,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D03A-366E-438D-835F-F77ED39203F3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,67 +7950,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>87</v>
+      <c r="A1" s="162" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="68"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="59"/>
     </row>
     <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Reports/Final_report.xlsx
+++ b/Final Reports/Final_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_WHR\Final Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86113C5D-38EA-4751-ACCC-17B73E2C2DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF56961-8A6B-409C-8936-4C55D65483FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{5548C944-58BE-4E2D-8701-6CA1B8BB2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1128,10 +1128,6 @@
 Additionally, geospatial maps below offer a visual representation of the data. It's important to note that extreme outliers in the GDP per capita column limit the clarity of the chart.</t>
   </si>
   <si>
-    <t xml:space="preserve">KMEANS clustering was used to determine if any regional subsets of data would stand out in regards to GDP per capita and happiness scores.  Due to the time sensitive nature of this project, the chart was created in Tableau using their K-Means algorythm after an error was found in the original python scripts. The Python data requires additional processing through PCA reformation before applying K-Means—a step that time constraints currently prevent from completion. 
-A distinct upward trend emerges when reading the data from Cluster 3 to Cluster 1. Moving from right to left, both GDP per Capita and Avg. Happiness scores consistently increase within each cluster. This trend suggests a positive correlation between economic prosperity (GDP per Capita) and happiness scores. When the data was geospatially analyzed distinct regional areas could be observed in the world between the clustsers. </t>
-  </si>
-  <si>
     <t>Given the moderate R2 score between GDP per capita and world happiness scores, a closer examination was conducted on countries exhibiting disproportionate wealth gaps in relation to happiness scores. Notably, certain countries stood out on both ends of the spectrum, displaying both lower GDP per capita with higher happiness scores and vice versa.
 To capture this trend efficiently, a heat map was created, considering the extensive list of over 150 countries in the World Happiness Report. This visual representation allows for a quick observation of the data, with countries that significantly deviate in color from their surrounding squares drawing attention. Variances in color indicate whether their happiness scores are notably higher (a darker shade of blue) or lower (greenish yellow) than their peer countries in a similar economic bracket.</t>
   </si>
@@ -1141,6 +1137,11 @@
   </si>
   <si>
     <t xml:space="preserve">The primary aim of this project was to showcase proficiency in Python and Tableau Public and create impactful visualizations for analytical purposes in a final presentation. This posed constraints related to time and the defined scope of the analysis, resulted in the exclusion of various factors crucial for a comprehensive understanding of the complexity of a topic like happiness. </t>
+  </si>
+  <si>
+    <t>K-means clustering was used to determine if any regional subsets of data would stand out in regards to GDP per capita and happiness scores.  Due to the time sensitive nature of this project, the chart was created in Tableau using their K-Means algorythm after an error was found in the original python scripts. The Python data requires additional processing through PCA reformation before applying K-Means—a step that time constraints currently prevent from completion. 
+Three distinct clusters were found using K-means analysis. A distinct upward trend emerges when reading the data from Cluster 3 to Cluster 1. Moving from right to left, both GDP per Capita and Happiness scores consistently increase within each cluster. This trend suggests a positive correlation between economic wealth (GDP per Capita) and happiness scores. 
+When the data was geospatially analyzed, distinct regional areas could be observed in the world between the clusters.  The blue cluster shows the highest overlap with countries with the highest GDP per capita and highest happiness scores. The grey cluster show the most overlap with lowest happiness scores though more exploration is needed to see its overlap with GDP per capita.</t>
   </si>
 </sst>
 </file>
@@ -2974,6 +2975,12 @@
     <xf numFmtId="0" fontId="49" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3093,12 +3100,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5626,7 +5627,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,37 +5637,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
     </row>
     <row r="2" spans="1:29" s="29" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="167" t="s">
@@ -6009,11 +6010,11 @@
     </row>
     <row r="4" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -6057,11 +6058,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="192"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="194"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="106" t="s">
@@ -6141,260 +6142,260 @@
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="200"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="187"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="189"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="189"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="187"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="187"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="189"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="189"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="187"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="189"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="187"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="189"/>
     </row>
     <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="189"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="189"/>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="186"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="186"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="186"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="182" t="s">
+      <c r="B31" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="186"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="177"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="179"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="178">
+      <c r="B33" s="180">
         <v>2015</v>
       </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="180">
+      <c r="C33" s="181"/>
+      <c r="D33" s="182">
         <v>2016</v>
       </c>
-      <c r="E33" s="181"/>
-      <c r="F33" s="178">
+      <c r="E33" s="183"/>
+      <c r="F33" s="180">
         <v>2017</v>
       </c>
-      <c r="G33" s="179"/>
-      <c r="H33" s="180">
+      <c r="G33" s="181"/>
+      <c r="H33" s="182">
         <v>2018</v>
       </c>
-      <c r="I33" s="181"/>
-      <c r="J33" s="178">
+      <c r="I33" s="183"/>
+      <c r="J33" s="180">
         <v>2019</v>
       </c>
-      <c r="K33" s="179"/>
+      <c r="K33" s="181"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="119" t="s">
@@ -6903,12 +6904,12 @@
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="275.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -6926,7 +6927,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="201" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -6935,86 +6936,86 @@
       <c r="D7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="203" t="s">
+      <c r="E7" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="199"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="92" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="203"/>
+      <c r="E8" s="205"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="199"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="92" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="94"/>
-      <c r="E9" s="203"/>
+      <c r="E9" s="205"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="199"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="94"/>
-      <c r="E10" s="203"/>
+      <c r="E10" s="205"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="199"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="92" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="94"/>
-      <c r="E11" s="203"/>
+      <c r="E11" s="205"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="199"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="94"/>
-      <c r="E12" s="203"/>
+      <c r="E12" s="205"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="199"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="94"/>
-      <c r="E13" s="203"/>
+      <c r="E13" s="205"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="199"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="92" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="94"/>
-      <c r="E14" s="203"/>
+      <c r="E14" s="205"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="199"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="92" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="94"/>
-      <c r="E15" s="203"/>
+      <c r="E15" s="205"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="199"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="92" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="94"/>
-      <c r="E16" s="203"/>
+      <c r="E16" s="205"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="201" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="92" t="s">
@@ -7023,88 +7024,88 @@
       <c r="D17" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="203" t="s">
+      <c r="E17" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="199"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="92" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="203"/>
+      <c r="E18" s="205"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="199"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="92" t="s">
         <v>109</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="203"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="199"/>
+      <c r="B20" s="201"/>
       <c r="C20" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="94"/>
-      <c r="E20" s="203"/>
+      <c r="E20" s="205"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="199"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="92" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="94"/>
-      <c r="E21" s="203"/>
+      <c r="E21" s="205"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="199"/>
+      <c r="B22" s="201"/>
       <c r="C22" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="94"/>
-      <c r="E22" s="203"/>
+      <c r="E22" s="205"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="199"/>
+      <c r="B23" s="201"/>
       <c r="C23" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="94"/>
-      <c r="E23" s="203"/>
+      <c r="E23" s="205"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="199"/>
+      <c r="B24" s="201"/>
       <c r="C24" s="92" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="94"/>
-      <c r="E24" s="203"/>
+      <c r="E24" s="205"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="199"/>
+      <c r="B25" s="201"/>
       <c r="C25" s="92" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="94"/>
-      <c r="E25" s="203"/>
+      <c r="E25" s="205"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="199"/>
+      <c r="B26" s="201"/>
       <c r="C26" s="92" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="94"/>
-      <c r="E26" s="203"/>
+      <c r="E26" s="205"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="199" t="s">
+      <c r="B27" s="201" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="92" t="s">
@@ -7113,233 +7114,233 @@
       <c r="D27" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="203" t="s">
+      <c r="E27" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="92" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="203"/>
+      <c r="E28" s="205"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="199"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="92" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="203"/>
+      <c r="E29" s="205"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="199"/>
+      <c r="B30" s="201"/>
       <c r="C30" s="92" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="94"/>
-      <c r="E30" s="203"/>
+      <c r="E30" s="205"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="199"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="92" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="94"/>
-      <c r="E31" s="203"/>
+      <c r="E31" s="205"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="199"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="92" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="94"/>
-      <c r="E32" s="203"/>
+      <c r="E32" s="205"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="199"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="92" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="94"/>
-      <c r="E33" s="203"/>
+      <c r="E33" s="205"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="199"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="92" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="94"/>
-      <c r="E34" s="203"/>
+      <c r="E34" s="205"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="199"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="92" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="94"/>
-      <c r="E35" s="203"/>
+      <c r="E35" s="205"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="199" t="s">
+      <c r="B36" s="201" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="208" t="s">
+      <c r="D36" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="203" t="s">
+      <c r="E36" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="199"/>
+      <c r="B37" s="201"/>
       <c r="C37" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="203"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="205"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="199"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="203"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="205"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="199"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="203"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="205"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="199"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="203"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="205"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="199"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="208"/>
-      <c r="E41" s="203"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="205"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="199"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="203"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="205"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="199"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="208"/>
-      <c r="E43" s="203"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="205"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="199"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="208"/>
-      <c r="E44" s="203"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="205"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="201" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="208" t="s">
+      <c r="D45" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="203" t="s">
+      <c r="E45" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="199"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="208"/>
-      <c r="E46" s="203"/>
+      <c r="D46" s="210"/>
+      <c r="E46" s="205"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="199"/>
+      <c r="B47" s="201"/>
       <c r="C47" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="208"/>
-      <c r="E47" s="203"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="205"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="199"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="208"/>
-      <c r="E48" s="203"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="205"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="199"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="208"/>
-      <c r="E49" s="203"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="205"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="199"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="208"/>
-      <c r="E50" s="203"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="205"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="199"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="208"/>
-      <c r="E51" s="203"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="205"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="199"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="208"/>
-      <c r="E52" s="203"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="205"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="199"/>
+      <c r="B53" s="201"/>
       <c r="C53" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="208"/>
-      <c r="E53" s="203"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="205"/>
     </row>
     <row r="54" spans="2:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B54" s="100" t="s">
@@ -7356,34 +7357,34 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="199" t="s">
+      <c r="B55" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="201" t="s">
+      <c r="C55" s="203" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="203" t="s">
+      <c r="E55" s="205" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="B56" s="199"/>
-      <c r="C56" s="201"/>
+      <c r="B56" s="201"/>
+      <c r="C56" s="203"/>
       <c r="D56" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="203"/>
+      <c r="E56" s="205"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="200"/>
-      <c r="C57" s="202"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="204"/>
       <c r="D57" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="204"/>
+      <c r="E57" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7432,10 +7433,10 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7523,13 +7524,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="210">
+      <c r="C11" s="212">
         <v>0</v>
       </c>
-      <c r="D11" s="210" t="s">
+      <c r="D11" s="212" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="88" t="s">
@@ -7537,33 +7538,33 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="209"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
       <c r="E12" s="88" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="209"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="88" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="209"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
       <c r="E14" s="88" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="209"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
       <c r="E15" s="88" t="s">
         <v>117</v>
       </c>
@@ -7631,10 +7632,10 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7712,8 +7713,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,16 +7768,16 @@
         <v>163</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="213"/>
+        <v>181</v>
+      </c>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="214" t="s">
-        <v>179</v>
+      <c r="C8" s="174" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7784,7 +7785,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7844,7 +7845,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -7937,7 +7938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D03A-366E-438D-835F-F77ED39203F3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7964,7 +7965,7 @@
     </row>
     <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
